--- a/articles/aosd_2014/graphs.xlsx
+++ b/articles/aosd_2014/graphs.xlsx
@@ -4,33 +4,35 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26760" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Size Distribution" sheetId="10" r:id="rId1"/>
-    <sheet name="Language Usage" sheetId="18" r:id="rId2"/>
-    <sheet name="Age Distribution" sheetId="13" r:id="rId3"/>
-    <sheet name="Type" sheetId="7" r:id="rId4"/>
-    <sheet name="Type+Visibility" sheetId="1" r:id="rId5"/>
-    <sheet name="size_localVariables" sheetId="11" r:id="rId6"/>
-    <sheet name="size_pubMethodReturn" sheetId="15" r:id="rId7"/>
-    <sheet name="size_proMethodReturn" sheetId="17" r:id="rId8"/>
-    <sheet name="size_priMethodReturn" sheetId="16" r:id="rId9"/>
+    <sheet name="Type System Usage" sheetId="20" r:id="rId2"/>
+    <sheet name="Language Usage" sheetId="18" r:id="rId3"/>
+    <sheet name="Age Distribution" sheetId="13" r:id="rId4"/>
+    <sheet name="Type" sheetId="7" r:id="rId5"/>
+    <sheet name="Type+Visibility" sheetId="1" r:id="rId6"/>
+    <sheet name="size_localVariables" sheetId="11" r:id="rId7"/>
+    <sheet name="size_pubMethodReturn" sheetId="15" r:id="rId8"/>
+    <sheet name="size_proMethodReturn" sheetId="17" r:id="rId9"/>
+    <sheet name="size_priMethodReturn" sheetId="16" r:id="rId10"/>
+    <sheet name="Programmers Background" sheetId="19" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="age_distribution" localSheetId="2">'Age Distribution'!#REF!</definedName>
-    <definedName name="age_distribution_1" localSheetId="2">'Age Distribution'!$A$1:$B$24</definedName>
-    <definedName name="localVariable" localSheetId="5">size_localVariables!$A$2:$B$13</definedName>
-    <definedName name="localVariable" localSheetId="8">size_priMethodReturn!#REF!</definedName>
-    <definedName name="localVariable" localSheetId="7">size_proMethodReturn!#REF!</definedName>
-    <definedName name="localVariable" localSheetId="6">size_pubMethodReturn!#REF!</definedName>
-    <definedName name="privateMethodReturn" localSheetId="8">size_priMethodReturn!$A$2:$B$13</definedName>
-    <definedName name="privateMethodReturn" localSheetId="7">size_proMethodReturn!$C$2:$D$13</definedName>
-    <definedName name="protectedMethodReturn" localSheetId="7">size_proMethodReturn!$A$1:$B$12</definedName>
-    <definedName name="publicMethodReturn" localSheetId="8">size_priMethodReturn!$A$2:$B$13</definedName>
-    <definedName name="publicMethodReturn" localSheetId="7">size_proMethodReturn!$C$2:$D$13</definedName>
-    <definedName name="publicMethodReturn" localSheetId="6">size_pubMethodReturn!$A$2:$B$13</definedName>
-    <definedName name="sizes" localSheetId="2">'Age Distribution'!#REF!</definedName>
+    <definedName name="age_distribution" localSheetId="3">'Age Distribution'!#REF!</definedName>
+    <definedName name="age_distribution_1" localSheetId="3">'Age Distribution'!$A$1:$B$24</definedName>
+    <definedName name="localVariable" localSheetId="6">size_localVariables!$A$2:$B$13</definedName>
+    <definedName name="localVariable" localSheetId="9">size_priMethodReturn!#REF!</definedName>
+    <definedName name="localVariable" localSheetId="8">size_proMethodReturn!#REF!</definedName>
+    <definedName name="localVariable" localSheetId="7">size_pubMethodReturn!#REF!</definedName>
+    <definedName name="privateMethodReturn" localSheetId="9">size_priMethodReturn!$A$2:$B$13</definedName>
+    <definedName name="privateMethodReturn" localSheetId="8">size_proMethodReturn!$C$2:$D$13</definedName>
+    <definedName name="protectedMethodReturn" localSheetId="8">size_proMethodReturn!$A$1:$B$12</definedName>
+    <definedName name="publicMethodReturn" localSheetId="9">size_priMethodReturn!$A$2:$B$13</definedName>
+    <definedName name="publicMethodReturn" localSheetId="8">size_proMethodReturn!$C$2:$D$13</definedName>
+    <definedName name="publicMethodReturn" localSheetId="7">size_pubMethodReturn!$A$2:$B$13</definedName>
+    <definedName name="sizes" localSheetId="3">'Age Distribution'!#REF!</definedName>
     <definedName name="sizes" localSheetId="0">'Size Distribution'!$A$1:$B$24</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -104,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
   <si>
     <t>Static</t>
   </si>
@@ -429,6 +431,24 @@
   <si>
     <t>Julia</t>
   </si>
+  <si>
+    <t>Dynamic and Static</t>
+  </si>
+  <si>
+    <t>Typed Statements</t>
+  </si>
+  <si>
+    <t>Untyped Statements (%)</t>
+  </si>
+  <si>
+    <t>Static and Dynamic</t>
+  </si>
+  <si>
+    <t>No other languages</t>
+  </si>
+  <si>
+    <t>Number of Developers</t>
+  </si>
 </sst>
 </file>
 
@@ -491,11 +511,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="70">
+  <cellStyleXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -584,7 +608,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="70">
+  <cellStyles count="74">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -619,6 +643,8 @@
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -653,6 +679,8 @@
     <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
@@ -15603,11 +15631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2058136904"/>
-        <c:axId val="2058144440"/>
+        <c:axId val="2067954392"/>
+        <c:axId val="2067960664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2058136904"/>
+        <c:axId val="2067954392"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -15630,7 +15658,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15647,14 +15674,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058144440"/>
+        <c:crossAx val="2067960664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="8.0"/>
         <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2058144440"/>
+        <c:axId val="2067960664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -15675,7 +15702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058136904"/>
+        <c:crossAx val="2067954392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -15701,6 +15728,323 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Constructor Parameter Declaration by Visibility</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Type+Visibility'!$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Statically Typed (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Type+Visibility'!$F$10:$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>public</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>private</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>protected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Type+Visibility'!$G$10:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>91.79607543462242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.01369863013699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.83050847457628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Type+Visibility'!$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamically Typed (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Type+Visibility'!$F$10:$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>public</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>private</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>protected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Type+Visibility'!$H$10:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.203924565377582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.98630136986301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.16949152542373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="2068410248"/>
+        <c:axId val="2068411736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2068410248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2068411736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2068411736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Verdana"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2068410248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.02"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1200">
+              <a:latin typeface="Verdana"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15730,6 +16074,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15860,11 +16205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2057493496"/>
-        <c:axId val="2057487976"/>
+        <c:axId val="2067403416"/>
+        <c:axId val="2067408888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2057493496"/>
+        <c:axId val="2067403416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15886,13 +16231,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2057487976"/>
+        <c:crossAx val="2067408888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15900,7 +16246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2057487976"/>
+        <c:axId val="2067408888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90.0"/>
@@ -15912,257 +16258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2057493496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10.0"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="0"/>
-      </c:dTable>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1300"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Dynamically Typed Public Method Return</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.107815157874805"/>
-          <c:y val="0.138635588545062"/>
-          <c:w val="0.850727439130229"/>
-          <c:h val="0.599337228547069"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>size_pubMethodReturn!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>[0, 128]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>]128, 256]</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>]256, 512]</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>]512, 1024]</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>]1024, 2048]</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>]2048, 4096]</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>]4096, 8192]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>]8192, 16384]</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>]16384, 32768]</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>]32768, 65536]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>]65536, 131072]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>]131072, 262144]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>size_pubMethodReturn!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="200"/>
-        <c:axId val="2057439816"/>
-        <c:axId val="2057434312"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2057439816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Project Size (Lines of Code)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2057434312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2057434312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2057439816"/>
+        <c:crossAx val="2067403416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -16226,11 +16322,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Dynamically Typed Protected Method Return</a:t>
+              <a:t>Dynamically Typed Public Method Return</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -16253,6 +16350,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>%</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -16261,7 +16361,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>size_proMethodReturn!$A$1:$A$12</c:f>
+              <c:f>size_pubMethodReturn!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -16305,45 +16405,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>size_proMethodReturn!$B$1:$B$12</c:f>
+              <c:f>size_pubMethodReturn!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16358,11 +16458,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2057386424"/>
-        <c:axId val="2057380936"/>
+        <c:axId val="2068459528"/>
+        <c:axId val="2068465000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2057386424"/>
+        <c:axId val="2068459528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16384,13 +16484,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2057380936"/>
+        <c:crossAx val="2068465000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16398,10 +16499,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2057380936"/>
+        <c:axId val="2068465000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -16410,7 +16510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2057386424"/>
+        <c:crossAx val="2068459528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -16474,6 +16574,256 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Dynamically Typed Protected Method Return</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.107815157874805"/>
+          <c:y val="0.138635588545062"/>
+          <c:w val="0.850727439130229"/>
+          <c:h val="0.599337228547069"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>size_proMethodReturn!$A$1:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>[0, 128]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>]128, 256]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>]256, 512]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>]512, 1024]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>]1024, 2048]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>]2048, 4096]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>]4096, 8192]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>]8192, 16384]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>]16384, 32768]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>]32768, 65536]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>]65536, 131072]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>]131072, 262144]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>size_proMethodReturn!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="200"/>
+        <c:axId val="2067433352"/>
+        <c:axId val="2067438872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2067433352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Project Size (Lines of Code)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2067438872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2067438872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2067433352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10.0"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Dynamically Typed Private</a:t>
             </a:r>
             <a:r>
@@ -16487,6 +16837,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -16617,11 +16968,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2057336520"/>
-        <c:axId val="2057331016"/>
+        <c:axId val="2067488200"/>
+        <c:axId val="2067493688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2057336520"/>
+        <c:axId val="2067488200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16643,13 +16994,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2057331016"/>
+        <c:crossAx val="2067493688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16657,7 +17009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2057331016"/>
+        <c:axId val="2067493688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -16669,7 +17021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2057336520"/>
+        <c:crossAx val="2067488200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -16708,7 +17060,413 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.443255606010047"/>
+          <c:y val="0.03601108033241"/>
+          <c:w val="0.494323331010913"/>
+          <c:h val="0.569337797456758"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Programmers Background'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Untyped Statements (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Programmers Background'!$F$2:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dynamic and Static</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Programmers Background'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40.41677554220016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.28901817691036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.73024523160763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="2081484232"/>
+        <c:axId val="2081482264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2081484232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r">
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2081482264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2081482264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Verdana"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2081484232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.0"/>
+        <c:minorUnit val="5.0"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Type System Usage'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Developers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Type System Usage'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Static</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dynamic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Static and Dynamic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>No other languages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Type System Usage'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>607.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>660.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2099.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1115.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2090239288"/>
+        <c:axId val="2094653816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2090239288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094653816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2094653816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090239288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16825,11 +17583,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2071771000"/>
-        <c:axId val="2071770104"/>
+        <c:axId val="2067342088"/>
+        <c:axId val="2067345064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2071771000"/>
+        <c:axId val="2067342088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16848,7 +17606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2071770104"/>
+        <c:crossAx val="2067345064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16856,7 +17614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2071770104"/>
+        <c:axId val="2067345064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16877,7 +17635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2071771000"/>
+        <c:crossAx val="2067342088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16899,7 +17657,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17319,11 +18077,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2058186936"/>
-        <c:axId val="2058194392"/>
+        <c:axId val="2068136056"/>
+        <c:axId val="2068144520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2058186936"/>
+        <c:axId val="2068136056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60.0"/>
@@ -17363,14 +18121,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058194392"/>
+        <c:crossAx val="2068144520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="6.0"/>
         <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2058194392"/>
+        <c:axId val="2068144520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -17391,7 +18149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058186936"/>
+        <c:crossAx val="2068136056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -17418,7 +18176,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17611,11 +18369,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2058243976"/>
-        <c:axId val="2058245464"/>
+        <c:axId val="2068193080"/>
+        <c:axId val="2068194568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2058243976"/>
+        <c:axId val="2068193080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17634,7 +18392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058245464"/>
+        <c:crossAx val="2068194568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17642,7 +18400,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2058245464"/>
+        <c:axId val="2068194568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17683,7 +18441,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058243976"/>
+        <c:crossAx val="2068193080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -17740,7 +18498,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -18047,11 +18805,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2058295768"/>
-        <c:axId val="2058297816"/>
+        <c:axId val="2068245448"/>
+        <c:axId val="2068247496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2058295768"/>
+        <c:axId val="2068245448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18060,7 +18818,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2058297816"/>
+        <c:crossAx val="2068247496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18068,7 +18826,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2058297816"/>
+        <c:axId val="2068247496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18119,7 +18877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058295768"/>
+        <c:crossAx val="2068245448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18153,7 +18911,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -18341,11 +19099,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2057678520"/>
-        <c:axId val="2057677160"/>
+        <c:axId val="2068287784"/>
+        <c:axId val="2068289272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2057678520"/>
+        <c:axId val="2068287784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18364,7 +19122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057677160"/>
+        <c:crossAx val="2068289272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18372,7 +19130,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2057677160"/>
+        <c:axId val="2068289272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18413,324 +19171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057678520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.2"/>
-        <c:minorUnit val="0.02"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="0"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="1300"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="1200">
-              <a:latin typeface="Verdana"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Method Parameter Declaration by Visibility</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="percentStacked"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Type+Visibility'!$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Statically Typed (%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Type+Visibility'!$F$6:$F$8</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>public</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>private</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>protected</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Type+Visibility'!$G$6:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>82.37878671086102</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67.17342342342343</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86.63282571912013</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Type+Visibility'!$H$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dynamically Typed (%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Type+Visibility'!$F$6:$F$8</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>public</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>private</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>protected</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Type+Visibility'!$H$6:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>17.62121328913898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.82657657657658</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.36717428087987</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="2057638344"/>
-        <c:axId val="2057636376"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2057638344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2057636376"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2057636376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9525">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Verdana"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2057638344"/>
+        <c:crossAx val="2068287784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -18812,7 +19253,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Field Declaration by Visibility</a:t>
+              <a:t>Method Parameter Declaration by Visibility</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -18832,7 +19273,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Type+Visibility'!$G$13</c:f>
+              <c:f>'Type+Visibility'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18850,7 +19291,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Type+Visibility'!$F$14:$F$16</c:f>
+              <c:f>'Type+Visibility'!$F$6:$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -18867,18 +19308,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Type+Visibility'!$G$14:$G$16</c:f>
+              <c:f>'Type+Visibility'!$G$6:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>88.76701966717095</c:v>
+                  <c:v>82.37878671086102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.43787225302937</c:v>
+                  <c:v>67.17342342342343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.54375531011045</c:v>
+                  <c:v>86.63282571912013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18901,7 +19342,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Type+Visibility'!$H$13</c:f>
+              <c:f>'Type+Visibility'!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18919,7 +19360,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Type+Visibility'!$F$14:$F$16</c:f>
+              <c:f>'Type+Visibility'!$F$6:$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -18936,18 +19377,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Type+Visibility'!$H$14:$H$16</c:f>
+              <c:f>'Type+Visibility'!$H$6:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.23298033282905</c:v>
+                  <c:v>17.62121328913898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.56212774697063</c:v>
+                  <c:v>32.82657657657658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.45624468988955</c:v>
+                  <c:v>13.36717428087987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18975,11 +19416,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2057597464"/>
-        <c:axId val="2057595496"/>
+        <c:axId val="2068328520"/>
+        <c:axId val="2068330008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2057597464"/>
+        <c:axId val="2068328520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18998,7 +19439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057595496"/>
+        <c:crossAx val="2068330008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19006,7 +19447,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2057595496"/>
+        <c:axId val="2068330008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19047,7 +19488,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057597464"/>
+        <c:crossAx val="2068328520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -19129,7 +19570,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Constructor Parameter Declaration by Visibility</a:t>
+              <a:t>Field Declaration by Visibility</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -19149,7 +19590,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Type+Visibility'!$G$9</c:f>
+              <c:f>'Type+Visibility'!$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19167,7 +19608,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Type+Visibility'!$F$10:$F$12</c:f>
+              <c:f>'Type+Visibility'!$F$14:$F$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -19184,18 +19625,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Type+Visibility'!$G$10:$G$12</c:f>
+              <c:f>'Type+Visibility'!$G$14:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>91.79607543462242</c:v>
+                  <c:v>88.76701966717095</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.01369863013699</c:v>
+                  <c:v>72.43787225302937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.83050847457628</c:v>
+                  <c:v>80.54375531011045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19218,7 +19659,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Type+Visibility'!$H$9</c:f>
+              <c:f>'Type+Visibility'!$H$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19236,7 +19677,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Type+Visibility'!$F$10:$F$12</c:f>
+              <c:f>'Type+Visibility'!$F$14:$F$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -19253,18 +19694,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Type+Visibility'!$H$10:$H$12</c:f>
+              <c:f>'Type+Visibility'!$H$14:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.203924565377582</c:v>
+                  <c:v>11.23298033282905</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.98630136986301</c:v>
+                  <c:v>27.56212774697063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.16949152542373</c:v>
+                  <c:v>19.45624468988955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19292,11 +19733,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2057556616"/>
-        <c:axId val="2057554648"/>
+        <c:axId val="2068369400"/>
+        <c:axId val="2068370888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2057556616"/>
+        <c:axId val="2068369400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19315,7 +19756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057554648"/>
+        <c:crossAx val="2068370888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19323,7 +19764,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2057554648"/>
+        <c:axId val="2068370888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19364,7 +19805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057556616"/>
+        <c:crossAx val="2068369400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -19456,7 +19897,116 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3060700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19491,7 +20041,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19528,7 +20078,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -19560,7 +20110,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -19698,7 +20248,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19733,7 +20283,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19770,7 +20320,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19781,43 +20331,6 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -40038,978 +40551,309 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <f>B1/4481</f>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>36484</v>
+      </c>
+      <c r="D2">
+        <v>24748</v>
+      </c>
+      <c r="E2">
+        <f>C2+D2</f>
+        <v>61232</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F4" si="0">A2</f>
+        <v>Dynamic</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G4" si="1">100*C2/E2</f>
+        <v>59.583224457799844</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H4" si="2">100*D2/E2</f>
+        <v>40.416775542200156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3">
+        <v>123877</v>
+      </c>
+      <c r="D3">
+        <v>83584</v>
+      </c>
+      <c r="E3">
+        <f>C3+D3</f>
+        <v>207461</v>
+      </c>
+      <c r="F3" t="str">
+        <f>A3</f>
+        <v>Dynamic and Static</v>
+      </c>
+      <c r="G3" s="4">
+        <f>100*C3/E3</f>
+        <v>59.710981823089639</v>
+      </c>
+      <c r="H3" s="4">
+        <f>100*D3/E3</f>
+        <v>40.289018176910361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>39234</v>
+      </c>
+      <c r="D4">
+        <v>15816</v>
+      </c>
+      <c r="E4">
+        <f>C4+D4</f>
+        <v>55050</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Static</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>71.269754768392374</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="2"/>
+        <v>28.730245231607629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="12.75" customHeight="1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>113</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>607</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C65" si="0">B2/4481</f>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>2.2316447221602321E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>4.4632894443204642E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>4.4632894443204642E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>4.4632894443204642E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>4.4632894443204642E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>4.4632894443204642E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>4.4632894443204642E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="24">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>4.4632894443204642E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>4.4632894443204642E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>4.4632894443204642E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>4.4632894443204642E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>4.4632894443204642E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>6.6949341664806962E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>6.6949341664806962E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>6.6949341664806962E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>6.6949341664806962E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>6.6949341664806962E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>8.9265788886409283E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>8.9265788886409283E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>8.9265788886409283E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>8.9265788886409283E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>1.1158223610801161E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>1.3389868332961392E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>1.3389868332961392E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>1.3389868332961392E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>1.5621513055121626E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>1.5621513055121626E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>1.7853157777281857E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42">
-        <v>8</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>1.7853157777281857E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>1.7853157777281857E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>1.7853157777281857E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45">
-        <v>9</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>2.008480249944209E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46">
-        <v>9</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>2.008480249944209E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>2.008480249944209E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>2.2316447221602323E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24">
-      <c r="A49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49">
-        <v>12</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>2.6779736665922785E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50">
-        <v>13</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>2.9011381388083018E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51">
-        <v>13</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>2.9011381388083018E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52">
-        <v>15</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>3.347467083240348E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53">
-        <v>18</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>4.016960499888418E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>21</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>4.6864539165364875E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>24</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
-        <v>5.355947333184557E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56">
-        <v>28</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="0"/>
-        <v>6.2486052220486503E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57">
-        <v>31</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>6.9180986386967198E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58">
-        <v>33</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
-        <v>7.3644275831287655E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59">
-        <v>38</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
-        <v>8.4802499442088817E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60">
-        <v>41</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="0"/>
-        <v>9.1497433608569521E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61">
-        <v>45</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
-        <v>1.0042401249721044E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62">
-        <v>50</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="0"/>
-        <v>1.115822361080116E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63">
-        <v>61</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>1.3613032805177415E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64">
-        <v>83</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="0"/>
-        <v>1.8522651193929925E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65">
-        <v>130</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="0"/>
-        <v>2.9011381388083016E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66">
-        <v>149</v>
-      </c>
-      <c r="C66">
-        <f t="shared" ref="C66:C80" si="1">B66/4481</f>
-        <v>3.3251506360187456E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>41</v>
-      </c>
-      <c r="B67">
-        <v>171</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="1"/>
-        <v>3.816112474893997E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68">
-        <v>176</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="1"/>
-        <v>3.9276947110020083E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69">
-        <v>190</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="1"/>
-        <v>4.2401249721044407E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70">
-        <v>246</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="1"/>
-        <v>5.4898460165141709E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>37</v>
-      </c>
-      <c r="B71">
-        <v>259</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="1"/>
-        <v>5.7799598303950012E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72">
-        <v>278</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="1"/>
-        <v>6.2039723276054455E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73">
-        <v>329</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="1"/>
-        <v>7.3421111359071631E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74">
-        <v>371</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="1"/>
-        <v>8.2794019192144616E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75">
-        <v>420</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="1"/>
-        <v>9.3729078330729743E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76">
-        <v>639</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="1"/>
-        <v>0.14260209774603883</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77">
-        <v>734</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="1"/>
-        <v>0.16380272260656104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78">
-        <v>966</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="1"/>
-        <v>0.21557688016067841</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79">
-        <v>2108</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="1"/>
-        <v>0.47043070743137694</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80">
-        <v>2437</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="1"/>
-        <v>0.54385181879044853</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="D2">
+        <v>2099</v>
+      </c>
+      <c r="E2">
+        <v>1115</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41024,6 +40868,990 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <f>B1/4481</f>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C65" si="0">B2/4481</f>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2.2316447221602321E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4.4632894443204642E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>4.4632894443204642E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>4.4632894443204642E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>4.4632894443204642E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>4.4632894443204642E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>4.4632894443204642E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>4.4632894443204642E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>4.4632894443204642E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>4.4632894443204642E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>4.4632894443204642E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>4.4632894443204642E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>6.6949341664806962E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>6.6949341664806962E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>6.6949341664806962E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>6.6949341664806962E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>6.6949341664806962E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>8.9265788886409283E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>8.9265788886409283E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>8.9265788886409283E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>8.9265788886409283E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1.1158223610801161E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1.3389868332961392E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>1.3389868332961392E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1.3389868332961392E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1.5621513055121626E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>1.5621513055121626E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>1.7853157777281857E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1.7853157777281857E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>1.7853157777281857E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>1.7853157777281857E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>2.008480249944209E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>2.008480249944209E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>2.008480249944209E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>2.2316447221602323E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>2.6779736665922785E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>2.9011381388083018E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>2.9011381388083018E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>3.347467083240348E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>4.016960499888418E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>4.6864539165364875E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>24</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>5.355947333184557E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56">
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>6.2486052220486503E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57">
+        <v>31</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>6.9180986386967198E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58">
+        <v>33</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>7.3644275831287655E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>8.4802499442088817E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60">
+        <v>41</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>9.1497433608569521E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61">
+        <v>45</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>1.0042401249721044E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62">
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>1.115822361080116E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>1.3613032805177415E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64">
+        <v>83</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>1.8522651193929925E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65">
+        <v>130</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>2.9011381388083016E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66">
+        <v>149</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C80" si="1">B66/4481</f>
+        <v>3.3251506360187456E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67">
+        <v>171</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>3.816112474893997E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68">
+        <v>176</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>3.9276947110020083E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69">
+        <v>190</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>4.2401249721044407E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70">
+        <v>246</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>5.4898460165141709E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71">
+        <v>259</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>5.7799598303950012E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>278</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>6.2039723276054455E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73">
+        <v>329</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>7.3421111359071631E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74">
+        <v>371</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>8.2794019192144616E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75">
+        <v>420</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>9.3729078330729743E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76">
+        <v>639</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>0.14260209774603883</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77">
+        <v>734</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>0.16380272260656104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78">
+        <v>966</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>0.21557688016067841</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79">
+        <v>2108</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>0.47043070743137694</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80">
+        <v>2437</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>0.54385181879044853</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
@@ -41503,7 +42331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -41682,7 +42510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -42200,7 +43028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
@@ -42344,7 +43172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B13"/>
   <sheetViews>
@@ -42468,7 +43296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -42592,128 +43420,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" customWidth="1"/>
-    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/articles/aosd_2014/graphs.xlsx
+++ b/articles/aosd_2014/graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26760" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Size Distribution" sheetId="10" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="115">
   <si>
     <t>Static</t>
   </si>
@@ -142,12 +142,6 @@
   </si>
   <si>
     <t>private</t>
-  </si>
-  <si>
-    <t>Statically Typed (%)</t>
-  </si>
-  <si>
-    <t>Dynamically Typed (%)</t>
   </si>
   <si>
     <t>Total Static</t>
@@ -438,9 +432,6 @@
     <t>Typed Statements</t>
   </si>
   <si>
-    <t>Untyped Statements (%)</t>
-  </si>
-  <si>
     <t>Static and Dynamic</t>
   </si>
   <si>
@@ -448,6 +439,18 @@
   </si>
   <si>
     <t>Number of Developers</t>
+  </si>
+  <si>
+    <t>Developers</t>
+  </si>
+  <si>
+    <t>Typed</t>
+  </si>
+  <si>
+    <t>Untyped</t>
+  </si>
+  <si>
+    <t>Untyped Statements</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -605,6 +608,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15631,11 +15637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2067954392"/>
-        <c:axId val="2067960664"/>
+        <c:axId val="2047271416"/>
+        <c:axId val="2047262520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2067954392"/>
+        <c:axId val="2047271416"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -15658,6 +15664,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15674,14 +15681,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067960664"/>
+        <c:crossAx val="2047262520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="8.0"/>
         <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2067960664"/>
+        <c:axId val="2047262520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -15702,7 +15709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067954392"/>
+        <c:crossAx val="2047271416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -15741,26 +15748,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Constructor Parameter Declaration by Visibility</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -15776,7 +15764,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Statically Typed (%)</c:v>
+                  <c:v>Typed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15809,16 +15797,16 @@
             <c:numRef>
               <c:f>'Type+Visibility'!$G$10:$G$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>91.79607543462242</c:v>
+                  <c:v>0.917960754346224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.01369863013699</c:v>
+                  <c:v>0.63013698630137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.83050847457628</c:v>
+                  <c:v>0.898305084745763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15845,7 +15833,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dynamically Typed (%)</c:v>
+                  <c:v>Untyped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15878,16 +15866,16 @@
             <c:numRef>
               <c:f>'Type+Visibility'!$H$10:$H$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.203924565377582</c:v>
+                  <c:v>0.0820392456537758</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.98630136986301</c:v>
+                  <c:v>0.36986301369863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.16949152542373</c:v>
+                  <c:v>0.101694915254237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15915,11 +15903,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2068410248"/>
-        <c:axId val="2068411736"/>
+        <c:axId val="2050596792"/>
+        <c:axId val="2050598360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2068410248"/>
+        <c:axId val="2050596792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15938,7 +15926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068411736"/>
+        <c:crossAx val="2050598360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15946,7 +15934,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2068411736"/>
+        <c:axId val="2050598360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15987,7 +15975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068410248"/>
+        <c:crossAx val="2050596792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -15997,7 +15985,7 @@
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="0"/>
+        <c:showKeys val="1"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -16010,23 +15998,6 @@
         </c:txPr>
       </c:dTable>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="1200">
-              <a:latin typeface="Verdana"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="1"/>
@@ -16058,26 +16029,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Dynamically Typed Local Variables</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -16205,11 +16157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2067403416"/>
-        <c:axId val="2067408888"/>
+        <c:axId val="2050659720"/>
+        <c:axId val="2050665208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2067403416"/>
+        <c:axId val="2050659720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16238,7 +16190,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067408888"/>
+        <c:crossAx val="2050665208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16246,7 +16198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067408888"/>
+        <c:axId val="2050665208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90.0"/>
@@ -16258,7 +16210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067403416"/>
+        <c:crossAx val="2050659720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -16311,26 +16263,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Dynamically Typed Public Method Return</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -16458,11 +16391,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2068459528"/>
-        <c:axId val="2068465000"/>
+        <c:axId val="2050709320"/>
+        <c:axId val="2050714792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2068459528"/>
+        <c:axId val="2050709320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16491,7 +16424,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068465000"/>
+        <c:crossAx val="2050714792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16499,7 +16432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2068465000"/>
+        <c:axId val="2050714792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16510,7 +16443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068459528"/>
+        <c:crossAx val="2050709320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -16563,26 +16496,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Dynamically Typed Protected Method Return</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -16707,11 +16621,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2067433352"/>
-        <c:axId val="2067438872"/>
+        <c:axId val="2050758808"/>
+        <c:axId val="2050764280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2067433352"/>
+        <c:axId val="2050758808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16740,7 +16654,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067438872"/>
+        <c:crossAx val="2050764280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16748,7 +16662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067438872"/>
+        <c:axId val="2050764280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -16760,7 +16674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067433352"/>
+        <c:crossAx val="2050758808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -16813,34 +16727,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Dynamically Typed Private</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Method Return</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -16968,11 +16855,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2067488200"/>
-        <c:axId val="2067493688"/>
+        <c:axId val="2050808312"/>
+        <c:axId val="2050813784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2067488200"/>
+        <c:axId val="2050808312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17001,7 +16888,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067493688"/>
+        <c:crossAx val="2050813784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17009,7 +16896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067493688"/>
+        <c:axId val="2050813784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -17021,7 +16908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067488200"/>
+        <c:crossAx val="2050808312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -17081,9 +16968,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.443255606010047"/>
-          <c:y val="0.03601108033241"/>
-          <c:w val="0.494323331010913"/>
+          <c:x val="0.303826232106426"/>
+          <c:y val="0.0654228147952094"/>
+          <c:w val="0.648306833701462"/>
           <c:h val="0.569337797456758"/>
         </c:manualLayout>
       </c:layout>
@@ -17100,7 +16987,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Untyped Statements (%)</c:v>
+                  <c:v>Untyped Statements</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17133,16 +17020,16 @@
             <c:numRef>
               <c:f>'Programmers Background'!$H$2:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40.41677554220016</c:v>
+                  <c:v>0.404167755422002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.28901817691036</c:v>
+                  <c:v>0.402890181769104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.73024523160763</c:v>
+                  <c:v>0.287302452316076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17169,11 +17056,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2081484232"/>
-        <c:axId val="2081482264"/>
+        <c:axId val="2050855560"/>
+        <c:axId val="2050857672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2081484232"/>
+        <c:axId val="2050855560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17192,7 +17079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081482264"/>
+        <c:crossAx val="2050857672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17200,10 +17087,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081482264"/>
+        <c:axId val="2050857672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45.0"/>
+          <c:max val="0.45"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -17219,7 +17106,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -17243,11 +17130,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081484232"/>
+        <c:crossAx val="2050855560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0"/>
-        <c:minorUnit val="5.0"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -17309,11 +17194,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Type System Usage'!$A$2</c:f>
+              <c:f>'Type System Usage'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Number of Developers</c:v>
+                  <c:v>Developers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17322,6 +17207,7 @@
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -17346,21 +17232,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Type System Usage'!$B$2:$E$2</c:f>
+              <c:f>'Type System Usage'!$B$3:$E$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>607.0</c:v>
+                  <c:v>0.135460834635126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>660.0</c:v>
+                  <c:v>0.147288551662575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2099.0</c:v>
+                  <c:v>0.468422227181433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1115.0</c:v>
+                  <c:v>0.248828386520866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17376,11 +17262,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2090239288"/>
-        <c:axId val="2094653816"/>
+        <c:axId val="2047170344"/>
+        <c:axId val="2047167288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2090239288"/>
+        <c:axId val="2047170344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17399,7 +17285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094653816"/>
+        <c:crossAx val="2047167288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17407,14 +17293,14 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094653816"/>
+        <c:axId val="2047167288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -17428,7 +17314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090239288"/>
+        <c:crossAx val="2047170344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17442,7 +17328,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="1400"/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -17494,6 +17380,7 @@
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -17583,11 +17470,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2067342088"/>
-        <c:axId val="2067345064"/>
+        <c:axId val="2047016520"/>
+        <c:axId val="2047013528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2067342088"/>
+        <c:axId val="2047016520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17606,7 +17493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067345064"/>
+        <c:crossAx val="2047013528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17614,7 +17501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067345064"/>
+        <c:axId val="2047013528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17635,7 +17522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067342088"/>
+        <c:crossAx val="2047016520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18077,11 +17964,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2068136056"/>
-        <c:axId val="2068144520"/>
+        <c:axId val="2046977224"/>
+        <c:axId val="2046969000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2068136056"/>
+        <c:axId val="2046977224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60.0"/>
@@ -18121,14 +18008,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068144520"/>
+        <c:crossAx val="2046969000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="6.0"/>
         <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2068144520"/>
+        <c:axId val="2046969000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -18149,7 +18036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068136056"/>
+        <c:crossAx val="2046977224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -18206,7 +18093,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Statically Typed (%)</c:v>
+                  <c:v>Typed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18245,22 +18132,22 @@
             <c:numRef>
               <c:f>Type!$G$2:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>91.73578440703777</c:v>
+                  <c:v>0.917357844070378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.7578163631483</c:v>
+                  <c:v>0.817578163631483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.50402761795166</c:v>
+                  <c:v>0.785040276179517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.7496649724876</c:v>
+                  <c:v>0.677496649724876</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.20195634021233</c:v>
+                  <c:v>0.292019563402123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18287,7 +18174,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dynamically Typed (%)</c:v>
+                  <c:v>Untyped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18326,22 +18213,22 @@
             <c:numRef>
               <c:f>Type!$H$2:$H$6</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.264215592962227</c:v>
+                  <c:v>0.0826421559296223</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.2421836368517</c:v>
+                  <c:v>0.182421836368517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.49597238204833</c:v>
+                  <c:v>0.214959723820483</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.2503350275124</c:v>
+                  <c:v>0.322503350275124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.79804365978766</c:v>
+                  <c:v>0.707980436597877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18369,11 +18256,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2068193080"/>
-        <c:axId val="2068194568"/>
+        <c:axId val="2046923960"/>
+        <c:axId val="2046921992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2068193080"/>
+        <c:axId val="2046923960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18392,7 +18279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068194568"/>
+        <c:crossAx val="2046921992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18400,7 +18287,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2068194568"/>
+        <c:axId val="2046921992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18441,7 +18328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068193080"/>
+        <c:crossAx val="2046923960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -18451,7 +18338,7 @@
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="0"/>
+        <c:showKeys val="1"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -18545,7 +18432,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Statically Typed (%)</c:v>
+                  <c:v>Typed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18604,52 +18491,52 @@
             <c:numRef>
               <c:f>'Type+Visibility'!$G$2:$G$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>67.25603337362081</c:v>
+                  <c:v>0.672560333736208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.43768996960486</c:v>
+                  <c:v>0.644376899696049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.74653887113951</c:v>
+                  <c:v>0.917465388711395</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.0">
-                  <c:v>82.37878671086102</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0">
-                  <c:v>67.17342342342343</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0">
-                  <c:v>86.63282571912013</c:v>
+                <c:pt idx="4">
+                  <c:v>0.82378786710861</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.671734234234234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.866328257191201</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.0">
-                  <c:v>91.79607543462242</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0">
-                  <c:v>63.01369863013699</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.0">
-                  <c:v>89.83050847457628</c:v>
+                <c:pt idx="8">
+                  <c:v>0.917960754346224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63013698630137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.898305084745763</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.0">
-                  <c:v>88.76701966717095</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.0">
-                  <c:v>72.43787225302937</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.0">
-                  <c:v>80.54375531011045</c:v>
+                <c:pt idx="12">
+                  <c:v>0.887670196671709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.724378722530294</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.805437553101104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18675,7 +18562,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dynamically Typed (%)</c:v>
+                  <c:v>Untyped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18734,52 +18621,52 @@
             <c:numRef>
               <c:f>'Type+Visibility'!$H$2:$H$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>32.7439666263792</c:v>
+                  <c:v>0.327439666263792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.56231003039513</c:v>
+                  <c:v>0.355623100303951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.25346112886049</c:v>
+                  <c:v>0.0825346112886049</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.0">
-                  <c:v>17.62121328913898</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0">
-                  <c:v>32.82657657657658</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0">
-                  <c:v>13.36717428087987</c:v>
+                <c:pt idx="4">
+                  <c:v>0.17621213289139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.328265765765766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.133671742808799</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.0">
-                  <c:v>8.203924565377582</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0">
-                  <c:v>36.98630136986301</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.0">
-                  <c:v>10.16949152542373</c:v>
+                <c:pt idx="8">
+                  <c:v>0.0820392456537758</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36986301369863</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.101694915254237</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.0">
-                  <c:v>11.23298033282905</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.0">
-                  <c:v>27.56212774697063</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.0">
-                  <c:v>19.45624468988955</c:v>
+                <c:pt idx="12">
+                  <c:v>0.11232980332829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.275621277469706</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.194562446898895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18805,11 +18692,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2068245448"/>
-        <c:axId val="2068247496"/>
+        <c:axId val="2046871688"/>
+        <c:axId val="2046869640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2068245448"/>
+        <c:axId val="2046871688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18818,7 +18705,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068247496"/>
+        <c:crossAx val="2046869640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18826,7 +18713,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2068247496"/>
+        <c:axId val="2046869640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18853,7 +18740,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
@@ -18877,7 +18764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068245448"/>
+        <c:crossAx val="2046871688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18925,26 +18812,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Method Return Declaration by Visibility</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -18960,7 +18828,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Statically Typed (%)</c:v>
+                  <c:v>Typed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18993,16 +18861,16 @@
             <c:numRef>
               <c:f>'Type+Visibility'!$G$2:$G$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>67.25603337362081</c:v>
+                  <c:v>0.672560333736208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.43768996960486</c:v>
+                  <c:v>0.644376899696049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.74653887113951</c:v>
+                  <c:v>0.917465388711395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19029,7 +18897,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dynamically Typed (%)</c:v>
+                  <c:v>Untyped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19062,16 +18930,16 @@
             <c:numRef>
               <c:f>'Type+Visibility'!$H$2:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>32.7439666263792</c:v>
+                  <c:v>0.327439666263792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.56231003039513</c:v>
+                  <c:v>0.355623100303951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.25346112886049</c:v>
+                  <c:v>0.0825346112886049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19099,11 +18967,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2068287784"/>
-        <c:axId val="2068289272"/>
+        <c:axId val="2046829912"/>
+        <c:axId val="2046827944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2068287784"/>
+        <c:axId val="2046829912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19122,7 +18990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068289272"/>
+        <c:crossAx val="2046827944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19130,7 +18998,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2068289272"/>
+        <c:axId val="2046827944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19171,7 +19039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068287784"/>
+        <c:crossAx val="2046829912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -19181,7 +19049,7 @@
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="0"/>
+        <c:showKeys val="1"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -19194,23 +19062,6 @@
         </c:txPr>
       </c:dTable>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="1200">
-              <a:latin typeface="Verdana"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="1"/>
@@ -19242,26 +19093,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Method Parameter Declaration by Visibility</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -19277,7 +19109,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Statically Typed (%)</c:v>
+                  <c:v>Typed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19310,16 +19142,16 @@
             <c:numRef>
               <c:f>'Type+Visibility'!$G$6:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>82.37878671086102</c:v>
+                  <c:v>0.82378786710861</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.17342342342343</c:v>
+                  <c:v>0.671734234234234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.63282571912013</c:v>
+                  <c:v>0.866328257191201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19346,7 +19178,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dynamically Typed (%)</c:v>
+                  <c:v>Untyped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19379,16 +19211,16 @@
             <c:numRef>
               <c:f>'Type+Visibility'!$H$6:$H$8</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>17.62121328913898</c:v>
+                  <c:v>0.17621213289139</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.82657657657658</c:v>
+                  <c:v>0.328265765765766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.36717428087987</c:v>
+                  <c:v>0.133671742808799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19416,11 +19248,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2068328520"/>
-        <c:axId val="2068330008"/>
+        <c:axId val="2050514248"/>
+        <c:axId val="2050515736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2068328520"/>
+        <c:axId val="2050514248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19439,7 +19271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068330008"/>
+        <c:crossAx val="2050515736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19447,7 +19279,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2068330008"/>
+        <c:axId val="2050515736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19488,7 +19320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068328520"/>
+        <c:crossAx val="2050514248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -19498,7 +19330,7 @@
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="0"/>
+        <c:showKeys val="1"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -19511,23 +19343,6 @@
         </c:txPr>
       </c:dTable>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="1200">
-              <a:latin typeface="Verdana"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="1"/>
@@ -19559,26 +19374,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Field Declaration by Visibility</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -19594,7 +19390,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Statically Typed (%)</c:v>
+                  <c:v>Typed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19627,16 +19423,16 @@
             <c:numRef>
               <c:f>'Type+Visibility'!$G$14:$G$16</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>88.76701966717095</c:v>
+                  <c:v>0.887670196671709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.43787225302937</c:v>
+                  <c:v>0.724378722530294</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.54375531011045</c:v>
+                  <c:v>0.805437553101104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19663,7 +19459,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dynamically Typed (%)</c:v>
+                  <c:v>Untyped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19696,16 +19492,16 @@
             <c:numRef>
               <c:f>'Type+Visibility'!$H$14:$H$16</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.23298033282905</c:v>
+                  <c:v>0.11232980332829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.56212774697063</c:v>
+                  <c:v>0.275621277469706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.45624468988955</c:v>
+                  <c:v>0.194562446898895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19733,11 +19529,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2068369400"/>
-        <c:axId val="2068370888"/>
+        <c:axId val="2050555128"/>
+        <c:axId val="2050556616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2068369400"/>
+        <c:axId val="2050555128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19756,7 +19552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068370888"/>
+        <c:crossAx val="2050556616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19764,7 +19560,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2068370888"/>
+        <c:axId val="2050556616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19805,7 +19601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068369400"/>
+        <c:crossAx val="2050555128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -19815,7 +19611,7 @@
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="0"/>
+        <c:showKeys val="1"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -19828,23 +19624,6 @@
         </c:txPr>
       </c:dTable>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="1200">
-              <a:latin typeface="Verdana"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="1"/>
@@ -19938,16 +19717,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20254,8 +20033,8 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -40556,13 +40335,13 @@
   <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
@@ -40570,7 +40349,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -40578,7 +40357,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -40586,7 +40365,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -40594,7 +40373,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>27</v>
@@ -40602,7 +40381,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>31</v>
@@ -40610,7 +40389,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>29</v>
@@ -40618,7 +40397,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -40626,7 +40405,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -40634,7 +40413,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>44</v>
@@ -40642,7 +40421,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>50</v>
@@ -40650,7 +40429,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>41</v>
@@ -40658,7 +40437,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -40679,13 +40458,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="44.5" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -40702,10 +40483,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
@@ -40726,18 +40507,18 @@
         <f t="shared" ref="F2:F4" si="0">A2</f>
         <v>Dynamic</v>
       </c>
-      <c r="G2" s="4">
-        <f t="shared" ref="G2:G4" si="1">100*C2/E2</f>
-        <v>59.583224457799844</v>
-      </c>
-      <c r="H2" s="4">
-        <f t="shared" ref="H2:H4" si="2">100*D2/E2</f>
-        <v>40.416775542200156</v>
+      <c r="G2" s="7">
+        <f>C2/E2</f>
+        <v>0.59583224457799844</v>
+      </c>
+      <c r="H2" s="7">
+        <f>D2/E2</f>
+        <v>0.40416775542200156</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3">
         <v>123877</v>
@@ -40753,13 +40534,13 @@
         <f>A3</f>
         <v>Dynamic and Static</v>
       </c>
-      <c r="G3" s="4">
-        <f>100*C3/E3</f>
-        <v>59.710981823089639</v>
-      </c>
-      <c r="H3" s="4">
-        <f>100*D3/E3</f>
-        <v>40.289018176910361</v>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G4" si="1">C3/E3</f>
+        <v>0.59710981823089637</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H4" si="2">D3/E3</f>
+        <v>0.40289018176910357</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
@@ -40780,18 +40561,17 @@
         <f t="shared" si="0"/>
         <v>Static</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7">
         <f t="shared" si="1"/>
-        <v>71.269754768392374</v>
-      </c>
-      <c r="H4" s="4">
+        <v>0.71269754768392368</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" si="2"/>
-        <v>28.730245231607629</v>
+        <v>0.28730245231607632</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -40805,8 +40585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -40822,15 +40602,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>607</v>
@@ -40844,11 +40624,36 @@
       <c r="E2">
         <v>1115</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4">
+        <f>SUM(B2:E2)</f>
+        <v>4481</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1">
-      <c r="F3" s="4"/>
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="7">
+        <f>B2/$F2</f>
+        <v>0.13546083463512609</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:F3" si="0">C2/$F2</f>
+        <v>0.14728855166257532</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" si="0"/>
+        <v>0.46842222718143273</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="0"/>
+        <v>0.24882838652086589</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1">
@@ -40882,7 +40687,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -40894,7 +40699,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -40906,7 +40711,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -40918,7 +40723,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -40930,7 +40735,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -40942,7 +40747,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -40954,7 +40759,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -40966,7 +40771,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -40978,7 +40783,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -40990,7 +40795,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -41002,7 +40807,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -41014,7 +40819,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -41026,7 +40831,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -41038,7 +40843,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -41050,7 +40855,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -41062,7 +40867,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -41074,7 +40879,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -41086,7 +40891,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -41098,7 +40903,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -41110,7 +40915,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -41122,7 +40927,7 @@
     </row>
     <row r="21" spans="1:3" ht="24">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -41134,7 +40939,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -41146,7 +40951,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -41158,7 +40963,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -41170,7 +40975,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -41182,7 +40987,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -41194,7 +40999,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -41206,7 +41011,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -41218,7 +41023,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -41230,7 +41035,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -41242,7 +41047,7 @@
     </row>
     <row r="31" spans="1:3" ht="24">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -41254,7 +41059,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -41266,7 +41071,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -41278,7 +41083,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -41290,7 +41095,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -41302,7 +41107,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -41314,7 +41119,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -41326,7 +41131,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -41338,7 +41143,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -41350,7 +41155,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -41362,7 +41167,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -41374,7 +41179,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -41386,7 +41191,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -41398,7 +41203,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -41410,7 +41215,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -41422,7 +41227,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -41434,7 +41239,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -41446,7 +41251,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -41458,7 +41263,7 @@
     </row>
     <row r="49" spans="1:3" ht="24">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -41470,7 +41275,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>13</v>
@@ -41482,7 +41287,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>13</v>
@@ -41494,7 +41299,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>15</v>
@@ -41506,7 +41311,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>18</v>
@@ -41518,7 +41323,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>21</v>
@@ -41530,7 +41335,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>24</v>
@@ -41542,7 +41347,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56">
         <v>28</v>
@@ -41554,7 +41359,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B57">
         <v>31</v>
@@ -41566,7 +41371,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B58">
         <v>33</v>
@@ -41578,7 +41383,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B59">
         <v>38</v>
@@ -41590,7 +41395,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B60">
         <v>41</v>
@@ -41602,7 +41407,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B61">
         <v>45</v>
@@ -41614,7 +41419,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -41626,7 +41431,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -41638,7 +41443,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B64">
         <v>83</v>
@@ -41650,7 +41455,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B65">
         <v>130</v>
@@ -41662,7 +41467,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66">
         <v>149</v>
@@ -41674,7 +41479,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B67">
         <v>171</v>
@@ -41686,7 +41491,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B68">
         <v>176</v>
@@ -41698,7 +41503,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B69">
         <v>190</v>
@@ -41710,7 +41515,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B70">
         <v>246</v>
@@ -41722,7 +41527,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B71">
         <v>259</v>
@@ -41734,7 +41539,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B72">
         <v>278</v>
@@ -41746,7 +41551,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B73">
         <v>329</v>
@@ -41758,7 +41563,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B74">
         <v>371</v>
@@ -41770,7 +41575,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B75">
         <v>420</v>
@@ -41782,7 +41587,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B76">
         <v>639</v>
@@ -41794,7 +41599,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B77">
         <v>734</v>
@@ -41806,7 +41611,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B78">
         <v>966</v>
@@ -41818,7 +41623,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B79">
         <v>2108</v>
@@ -41830,7 +41635,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B80">
         <v>2437</v>
@@ -42336,7 +42141,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -42358,10 +42163,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
@@ -42382,13 +42187,13 @@
         <f t="shared" ref="F2:F6" si="0">A2</f>
         <v>Constructor Parameter</v>
       </c>
-      <c r="G2" s="4">
-        <f t="shared" ref="G2:G6" si="1">100*C2/E2</f>
-        <v>91.735784407037769</v>
-      </c>
-      <c r="H2" s="4">
-        <f t="shared" ref="H2:H6" si="2">100*D2/E2</f>
-        <v>8.264215592962227</v>
+      <c r="G2" s="7">
+        <f>C2/E2</f>
+        <v>0.91735784407037768</v>
+      </c>
+      <c r="H2" s="7">
+        <f>D2/E2</f>
+        <v>8.2642155929622277E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
@@ -42409,13 +42214,13 @@
         <f>A3</f>
         <v>Method Parameter</v>
       </c>
-      <c r="G3" s="4">
-        <f>100*C3/E3</f>
-        <v>81.757816363148308</v>
-      </c>
-      <c r="H3" s="4">
-        <f>100*D3/E3</f>
-        <v>18.242183636851699</v>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G6" si="1">C3/E3</f>
+        <v>0.81757816363148306</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H6" si="2">D3/E3</f>
+        <v>0.18242183636851697</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
@@ -42436,13 +42241,13 @@
         <f t="shared" si="0"/>
         <v>Field</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7">
         <f t="shared" si="1"/>
-        <v>78.504027617951664</v>
-      </c>
-      <c r="H4" s="4">
+        <v>0.78504027617951666</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" si="2"/>
-        <v>21.495972382048333</v>
+        <v>0.21495972382048331</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
@@ -42463,13 +42268,13 @@
         <f>A5</f>
         <v>Method Return</v>
       </c>
-      <c r="G5" s="4">
-        <f>100*C5/E5</f>
-        <v>67.749664972487608</v>
-      </c>
-      <c r="H5" s="4">
-        <f>100*D5/E5</f>
-        <v>32.250335027512399</v>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.677496649724876</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.322503350275124</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
@@ -42490,13 +42295,13 @@
         <f t="shared" si="0"/>
         <v>Local Variable</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
-        <v>29.201956340212334</v>
-      </c>
-      <c r="H6" s="4">
+        <v>0.29201956340212337</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="2"/>
-        <v>70.798043659787666</v>
+        <v>0.70798043659787668</v>
       </c>
     </row>
   </sheetData>
@@ -42514,8 +42319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J37:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -42537,16 +42342,16 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
@@ -42567,13 +42372,13 @@
         <f>B2</f>
         <v>public</v>
       </c>
-      <c r="G2" s="3">
-        <f>C2/E2*100</f>
-        <v>67.256033373620809</v>
-      </c>
-      <c r="H2" s="3">
-        <f>100*D2/E2</f>
-        <v>32.743966626379198</v>
+      <c r="G2" s="7">
+        <f>C2/E2</f>
+        <v>0.67256033373620805</v>
+      </c>
+      <c r="H2" s="7">
+        <f>D2/E2</f>
+        <v>0.32743966626379195</v>
       </c>
       <c r="I2">
         <f>SUM(C2:C4)</f>
@@ -42605,13 +42410,13 @@
         <f t="shared" ref="F3:F16" si="0">B3</f>
         <v>private</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G4" si="1">C3/E3*100</f>
-        <v>64.437689969604861</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H4" si="2">100*D3/E3</f>
-        <v>35.562310030395139</v>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G4" si="1">C3/E3</f>
+        <v>0.64437689969604861</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H4" si="2">D3/E3</f>
+        <v>0.35562310030395139</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1">
@@ -42632,23 +42437,23 @@
         <f t="shared" si="0"/>
         <v>protected</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="7">
         <f t="shared" si="1"/>
-        <v>91.746538871139506</v>
-      </c>
-      <c r="H4" s="3">
+        <v>0.91746538871139505</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" si="2"/>
-        <v>8.25346112886049</v>
+        <v>8.2534611288604898E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="G5" t="str">
         <f>G1</f>
-        <v>Statically Typed (%)</v>
+        <v>Typed</v>
       </c>
       <c r="H5" t="str">
         <f>H1</f>
-        <v>Dynamically Typed (%)</v>
+        <v>Untyped</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1">
@@ -42669,13 +42474,13 @@
         <f t="shared" si="0"/>
         <v>public</v>
       </c>
-      <c r="G6" s="4">
-        <f>100*C6/E6</f>
-        <v>82.378786710861021</v>
-      </c>
-      <c r="H6" s="4">
-        <f>100*D6/E6</f>
-        <v>17.621213289138982</v>
+      <c r="G6" s="7">
+        <f>C6/E6</f>
+        <v>0.82378786710861018</v>
+      </c>
+      <c r="H6" s="7">
+        <f>D6/E6</f>
+        <v>0.17621213289138982</v>
       </c>
       <c r="I6">
         <f>SUM(C6:C8)</f>
@@ -42707,13 +42512,13 @@
         <f t="shared" si="0"/>
         <v>private</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" ref="G7:G8" si="3">100*C7/E7</f>
-        <v>67.173423423423429</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" ref="H7:H8" si="4">100*D7/E7</f>
-        <v>32.826576576576578</v>
+      <c r="G7" s="7">
+        <f t="shared" ref="G7:G8" si="3">C7/E7</f>
+        <v>0.67173423423423428</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" ref="H7:H8" si="4">D7/E7</f>
+        <v>0.32826576576576577</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
@@ -42734,23 +42539,23 @@
         <f t="shared" si="0"/>
         <v>protected</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="7">
         <f t="shared" si="3"/>
-        <v>86.632825719120135</v>
-      </c>
-      <c r="H8" s="4">
+        <v>0.86632825719120132</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="4"/>
-        <v>13.367174280879865</v>
+        <v>0.13367174280879865</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="G9" t="str">
         <f>G5</f>
-        <v>Statically Typed (%)</v>
+        <v>Typed</v>
       </c>
       <c r="H9" t="str">
         <f>H5</f>
-        <v>Dynamically Typed (%)</v>
+        <v>Untyped</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1">
@@ -42771,13 +42576,13 @@
         <f t="shared" si="0"/>
         <v>public</v>
       </c>
-      <c r="G10" s="4">
-        <f>100*C10/E10</f>
-        <v>91.796075434622423</v>
-      </c>
-      <c r="H10" s="4">
-        <f>100*D10/E10</f>
-        <v>8.2039245653775819</v>
+      <c r="G10" s="7">
+        <f>C10/E10</f>
+        <v>0.91796075434622415</v>
+      </c>
+      <c r="H10" s="7">
+        <f>D10/E10</f>
+        <v>8.2039245653775822E-2</v>
       </c>
       <c r="I10">
         <f>SUM(C10:C12)</f>
@@ -42809,13 +42614,13 @@
         <f t="shared" si="0"/>
         <v>private</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" ref="G11:G12" si="5">100*C11/E11</f>
-        <v>63.013698630136986</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" ref="H11:H12" si="6">100*D11/E11</f>
-        <v>36.986301369863014</v>
+      <c r="G11" s="7">
+        <f t="shared" ref="G11:G12" si="5">C11/E11</f>
+        <v>0.63013698630136983</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" ref="H11:H12" si="6">D11/E11</f>
+        <v>0.36986301369863012</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1">
@@ -42836,23 +42641,23 @@
         <f t="shared" si="0"/>
         <v>protected</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="7">
         <f t="shared" si="5"/>
-        <v>89.830508474576277</v>
-      </c>
-      <c r="H12" s="4">
+        <v>0.89830508474576276</v>
+      </c>
+      <c r="H12" s="7">
         <f t="shared" si="6"/>
-        <v>10.169491525423728</v>
+        <v>0.10169491525423729</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="G13" t="str">
         <f>G9</f>
-        <v>Statically Typed (%)</v>
+        <v>Typed</v>
       </c>
       <c r="H13" t="str">
         <f>H9</f>
-        <v>Dynamically Typed (%)</v>
+        <v>Untyped</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1">
@@ -42873,13 +42678,13 @@
         <f t="shared" si="0"/>
         <v>public</v>
       </c>
-      <c r="G14" s="4">
-        <f>100*C14/E14</f>
-        <v>88.767019667170956</v>
-      </c>
-      <c r="H14" s="4">
-        <f>100*D14/E14</f>
-        <v>11.232980332829047</v>
+      <c r="G14" s="7">
+        <f>C14/E14</f>
+        <v>0.88767019667170954</v>
+      </c>
+      <c r="H14" s="7">
+        <f>D14/E14</f>
+        <v>0.11232980332829047</v>
       </c>
       <c r="I14">
         <f>SUM(C14:C16)</f>
@@ -42911,13 +42716,13 @@
         <f t="shared" si="0"/>
         <v>private</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" ref="G15:G16" si="7">100*C15/E15</f>
-        <v>72.437872253029369</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" ref="H15:H16" si="8">100*D15/E15</f>
-        <v>27.562127746970631</v>
+      <c r="G15" s="7">
+        <f t="shared" ref="G15:G16" si="7">C15/E15</f>
+        <v>0.72437872253029367</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" ref="H15:H16" si="8">D15/E15</f>
+        <v>0.27562127746970633</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1">
@@ -42938,13 +42743,13 @@
         <f t="shared" si="0"/>
         <v>protected</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="7">
         <f t="shared" si="7"/>
-        <v>80.543755310110456</v>
-      </c>
-      <c r="H16" s="4">
+        <v>0.80543755310110454</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" si="8"/>
-        <v>19.456244689889548</v>
+        <v>0.19456244689889549</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
@@ -43052,7 +42857,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6">
         <v>40</v>
@@ -43060,7 +42865,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6">
         <v>24</v>
@@ -43068,7 +42873,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6">
         <v>34</v>
@@ -43076,7 +42881,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6">
         <v>45</v>
@@ -43084,7 +42889,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6">
         <v>63</v>
@@ -43092,7 +42897,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6">
         <v>68</v>
@@ -43100,7 +42905,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6">
         <v>67</v>
@@ -43108,7 +42913,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6">
         <v>65</v>
@@ -43116,7 +42921,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6">
         <v>80</v>
@@ -43124,7 +42929,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6">
         <v>54</v>
@@ -43132,7 +42937,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6">
         <v>77</v>
@@ -43140,7 +42945,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6">
         <v>73</v>
@@ -43191,7 +42996,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>45</v>
@@ -43199,7 +43004,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>44</v>
@@ -43207,7 +43012,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>41</v>
@@ -43215,7 +43020,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>38</v>
@@ -43223,7 +43028,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>31</v>
@@ -43231,7 +43036,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>28</v>
@@ -43239,7 +43044,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>28</v>
@@ -43247,7 +43052,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>27</v>
@@ -43255,7 +43060,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>33</v>
@@ -43263,7 +43068,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -43271,7 +43076,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>15</v>
@@ -43279,7 +43084,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -43317,7 +43122,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -43325,7 +43130,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -43333,7 +43138,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -43341,7 +43146,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -43349,7 +43154,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -43357,7 +43162,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -43365,7 +43170,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -43373,7 +43178,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -43381,7 +43186,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -43389,7 +43194,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -43397,7 +43202,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -43405,7 +43210,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/articles/aosd_2014/graphs.xlsx
+++ b/articles/aosd_2014/graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Size Distribution" sheetId="10" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="size_pubMethodReturn" sheetId="15" r:id="rId8"/>
     <sheet name="size_proMethodReturn" sheetId="17" r:id="rId9"/>
     <sheet name="size_priMethodReturn" sheetId="16" r:id="rId10"/>
-    <sheet name="Programmers Background" sheetId="19" r:id="rId11"/>
+    <sheet name="Tests+Scripts" sheetId="22" r:id="rId11"/>
+    <sheet name="Programmers Background" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="age_distribution" localSheetId="3">'Age Distribution'!#REF!</definedName>
@@ -106,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="120">
   <si>
     <t>Static</t>
   </si>
@@ -452,6 +453,21 @@
   <si>
     <t>Untyped Statements</t>
   </si>
+  <si>
+    <t>Test Classes</t>
+  </si>
+  <si>
+    <t>Main Classes</t>
+  </si>
+  <si>
+    <t>Scripts</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Project Size</t>
+  </si>
 </sst>
 </file>
 
@@ -514,7 +530,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -589,8 +605,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -613,8 +633,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="78">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -651,6 +674,8 @@
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -687,6 +712,8 @@
     <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
@@ -15637,11 +15664,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2047271416"/>
-        <c:axId val="2047262520"/>
+        <c:axId val="2050080568"/>
+        <c:axId val="2050073656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2047271416"/>
+        <c:axId val="2050080568"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -15664,7 +15691,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15681,14 +15707,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047262520"/>
+        <c:crossAx val="2050073656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="8.0"/>
         <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2047262520"/>
+        <c:axId val="2050073656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -15709,7 +15735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047271416"/>
+        <c:crossAx val="2050080568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -15903,11 +15929,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2050596792"/>
-        <c:axId val="2050598360"/>
+        <c:axId val="2047971528"/>
+        <c:axId val="2047974776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2050596792"/>
+        <c:axId val="2047971528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15926,7 +15952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050598360"/>
+        <c:crossAx val="2047974776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15934,7 +15960,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050598360"/>
+        <c:axId val="2047974776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15975,7 +16001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050596792"/>
+        <c:crossAx val="2047971528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -16050,7 +16076,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>%</c:v>
+            <c:v>Untyped</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -16104,45 +16130,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>size_localVariables!$B$2:$B$13</c:f>
+              <c:f>size_localVariables!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>40.0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.0</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.0</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.0</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.0</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65.0</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.0</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.0</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.0</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16157,11 +16183,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2050659720"/>
-        <c:axId val="2050665208"/>
+        <c:axId val="2047908568"/>
+        <c:axId val="2047880040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2050659720"/>
+        <c:axId val="2047908568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16190,7 +16216,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2050665208"/>
+        <c:crossAx val="2047880040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16198,22 +16224,39 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050665208"/>
+        <c:axId val="2047880040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="90.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Declarations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2050659720"/>
+        <c:crossAx val="2047908568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -16284,7 +16327,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>%</c:v>
+            <c:v>Untyped</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -16338,45 +16381,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>size_pubMethodReturn!$B$2:$B$13</c:f>
+              <c:f>size_pubMethodReturn!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>45.0</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.0</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.0</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.0</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.0</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.0</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.0</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.0</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.0</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.0</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16391,11 +16434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2050709320"/>
-        <c:axId val="2050714792"/>
+        <c:axId val="2052315624"/>
+        <c:axId val="2052321112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2050709320"/>
+        <c:axId val="2052315624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16424,7 +16467,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2050714792"/>
+        <c:crossAx val="2052321112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16432,21 +16475,42 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050714792"/>
+        <c:axId val="2052321112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Declarations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2050709320"/>
+        <c:crossAx val="2052315624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10.0"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -16516,6 +16580,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Untyped</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -16568,9 +16635,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>size_proMethodReturn!$B$1:$B$12</c:f>
+              <c:f>size_proMethodReturn!$C$1:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
@@ -16579,31 +16646,31 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.0</c:v>
@@ -16621,11 +16688,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2050758808"/>
-        <c:axId val="2050764280"/>
+        <c:axId val="2052362536"/>
+        <c:axId val="2052368008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2050758808"/>
+        <c:axId val="2052362536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16654,7 +16721,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2050764280"/>
+        <c:crossAx val="2052368008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16662,22 +16729,42 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050764280"/>
+        <c:axId val="2052368008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
+          <c:max val="0.5"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Declarations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2050758808"/>
+        <c:crossAx val="2052362536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10.0"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -16748,7 +16835,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>%</c:v>
+            <c:v>Untyped</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -16802,45 +16889,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>size_priMethodReturn!$B$2:$B$13</c:f>
+              <c:f>size_priMethodReturn!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.0</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.0</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.0</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.0</c:v>
+                  <c:v>0.29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.0</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.0</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16855,11 +16942,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2050808312"/>
-        <c:axId val="2050813784"/>
+        <c:axId val="2052409112"/>
+        <c:axId val="2052414584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2050808312"/>
+        <c:axId val="2052409112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16888,7 +16975,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2050813784"/>
+        <c:crossAx val="2052414584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16896,22 +16983,42 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050813784"/>
+        <c:axId val="2052414584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
+          <c:max val="0.5"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Declarations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2050808312"/>
+        <c:crossAx val="2052409112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10.0"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -16961,6 +17068,862 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Verdana"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Declarações</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tests+Scripts'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Typed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3C78D8"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tests+Scripts'!$E$2:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Test Classes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Main Classes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Scripts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Classes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tests+Scripts'!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.558732937235959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.677597965292939</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63563484708063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58599121285405</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tests+Scripts'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Untyped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tests+Scripts'!$E$2:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Test Classes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Main Classes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Scripts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Classes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tests+Scripts'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.441267062764042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.322402034707061</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36436515291937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41400878714595</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2064341336"/>
+        <c:axId val="2064344664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2064341336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2064344664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2064344664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" i="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Verdana"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064341336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Verdana"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tests+Scripts'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Typed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tests+Scripts'!$E$2:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Test Classes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Main Classes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tests+Scripts'!$F$2:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.558732937235959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.677597965292939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tests+Scripts'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Untyped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tests+Scripts'!$E$2:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Test Classes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Main Classes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tests+Scripts'!$G$2:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.441267062764042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.322402034707061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="2064385800"/>
+        <c:axId val="2064387288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2064385800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064387288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2064387288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Verdana"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064385800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.02"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tests+Scripts'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Typed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tests+Scripts'!$E$5:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Scripts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Classes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tests+Scripts'!$F$5:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.63563484708063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58599121285405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tests+Scripts'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Untyped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tests+Scripts'!$E$5:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Scripts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Classes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tests+Scripts'!$G$5:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.36436515291937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41400878714595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="2064426280"/>
+        <c:axId val="2064427768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2064426280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064427768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2064427768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Verdana"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064426280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.02"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1300"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -17056,11 +18019,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2050855560"/>
-        <c:axId val="2050857672"/>
+        <c:axId val="2052454792"/>
+        <c:axId val="2052456904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2050855560"/>
+        <c:axId val="2052454792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17079,7 +18042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050857672"/>
+        <c:crossAx val="2052456904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17087,7 +18050,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050857672"/>
+        <c:axId val="2052456904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.45"/>
@@ -17130,7 +18093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050855560"/>
+        <c:crossAx val="2052454792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17262,11 +18225,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2047170344"/>
-        <c:axId val="2047167288"/>
+        <c:axId val="2050012696"/>
+        <c:axId val="2050009640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2047170344"/>
+        <c:axId val="2050012696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17285,7 +18248,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047167288"/>
+        <c:crossAx val="2050009640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17293,7 +18256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047167288"/>
+        <c:axId val="2050009640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17314,7 +18277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047170344"/>
+        <c:crossAx val="2050012696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17470,11 +18433,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2047016520"/>
-        <c:axId val="2047013528"/>
+        <c:axId val="2048884888"/>
+        <c:axId val="2048887928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2047016520"/>
+        <c:axId val="2048884888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17493,7 +18456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047013528"/>
+        <c:crossAx val="2048887928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17501,7 +18464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047013528"/>
+        <c:axId val="2048887928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17522,7 +18485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047016520"/>
+        <c:crossAx val="2048884888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17964,11 +18927,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2046977224"/>
-        <c:axId val="2046969000"/>
+        <c:axId val="2048853048"/>
+        <c:axId val="2048814824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2046977224"/>
+        <c:axId val="2048853048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60.0"/>
@@ -17991,7 +18954,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -18008,14 +18970,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046969000"/>
+        <c:crossAx val="2048814824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="6.0"/>
         <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2046969000"/>
+        <c:axId val="2048814824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -18036,7 +18998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046977224"/>
+        <c:crossAx val="2048853048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -18256,11 +19218,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2046923960"/>
-        <c:axId val="2046921992"/>
+        <c:axId val="2048710344"/>
+        <c:axId val="2048694408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2046923960"/>
+        <c:axId val="2048710344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18279,7 +19241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046921992"/>
+        <c:crossAx val="2048694408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18287,7 +19249,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2046921992"/>
+        <c:axId val="2048694408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18328,7 +19290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046923960"/>
+        <c:crossAx val="2048710344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -18692,11 +19654,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2046871688"/>
-        <c:axId val="2046869640"/>
+        <c:axId val="2048264824"/>
+        <c:axId val="2048254744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2046871688"/>
+        <c:axId val="2048264824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18705,7 +19667,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046869640"/>
+        <c:crossAx val="2048254744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18713,7 +19675,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2046869640"/>
+        <c:axId val="2048254744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18764,7 +19726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046871688"/>
+        <c:crossAx val="2048264824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18967,11 +19929,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2046829912"/>
-        <c:axId val="2046827944"/>
+        <c:axId val="2048103288"/>
+        <c:axId val="2048106536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2046829912"/>
+        <c:axId val="2048103288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18990,7 +19952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046827944"/>
+        <c:crossAx val="2048106536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18998,7 +19960,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2046827944"/>
+        <c:axId val="2048106536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19039,7 +20001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046829912"/>
+        <c:crossAx val="2048103288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -19248,11 +20210,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2050514248"/>
-        <c:axId val="2050515736"/>
+        <c:axId val="2048053176"/>
+        <c:axId val="2048056424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2050514248"/>
+        <c:axId val="2048053176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19271,7 +20233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050515736"/>
+        <c:crossAx val="2048056424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19279,7 +20241,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050515736"/>
+        <c:axId val="2048056424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19320,7 +20282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050514248"/>
+        <c:crossAx val="2048053176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -19529,11 +20491,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2050555128"/>
-        <c:axId val="2050556616"/>
+        <c:axId val="2047998904"/>
+        <c:axId val="2048002152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2050555128"/>
+        <c:axId val="2047998904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19552,7 +20514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050556616"/>
+        <c:crossAx val="2048002152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19560,7 +20522,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050556616"/>
+        <c:axId val="2048002152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19601,7 +20563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050555128"/>
+        <c:crossAx val="2047998904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -19714,6 +20676,92 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6153150" cy="5181600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5867399" cy="2806699"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5867399" cy="2844800"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19863,10 +20911,10 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1295401</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6032499" cy="4584700"/>
+    <xdr:ext cx="6032499" cy="4965700"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 6"/>
@@ -19920,10 +20968,10 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>584201</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5867399" cy="3695700"/>
+    <xdr:ext cx="5867399" cy="3454400"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
@@ -19947,10 +20995,10 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5867399" cy="3695700"/>
+    <xdr:ext cx="5867399" cy="3416300"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
@@ -19974,10 +21022,10 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5867399" cy="3695700"/>
+    <xdr:ext cx="5867399" cy="3441700"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
@@ -20001,10 +21049,10 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5867399" cy="3695700"/>
+    <xdr:ext cx="5867399" cy="3479800"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5"/>
@@ -40332,10 +41380,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B13"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -40347,100 +41395,148 @@
     <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="8">
+        <f>B2/100</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C13" si="0">B3/100</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13">
         <v>20</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -40456,10 +41552,267 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75" customHeight="1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2">
+        <v>33196</v>
+      </c>
+      <c r="C2">
+        <v>26217</v>
+      </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>59413</v>
+      </c>
+      <c r="E2" t="str">
+        <f>A2</f>
+        <v>Test Classes</v>
+      </c>
+      <c r="F2" s="7">
+        <f>B2/D2</f>
+        <v>0.55873293723595852</v>
+      </c>
+      <c r="G2" s="7">
+        <f>C2/D2</f>
+        <v>0.44126706276404154</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:B3)</f>
+        <v>63301</v>
+      </c>
+      <c r="I2">
+        <f>SUM(C2:C3)</f>
+        <v>40541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3">
+        <v>30105</v>
+      </c>
+      <c r="C3">
+        <v>14324</v>
+      </c>
+      <c r="D3">
+        <f>B3+C3</f>
+        <v>44429</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="0">A3</f>
+        <v>Main Classes</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3" si="1">B3/D3</f>
+        <v>0.67759796529293925</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3" si="2">C3/D3</f>
+        <v>0.32240203470706069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+      <c r="F4" t="str">
+        <f>F1</f>
+        <v>Typed</v>
+      </c>
+      <c r="G4" t="str">
+        <f>G1</f>
+        <v>Untyped</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>41151</v>
+      </c>
+      <c r="C5">
+        <v>23589</v>
+      </c>
+      <c r="D5">
+        <f>B5+C5</f>
+        <v>64740</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Scripts</v>
+      </c>
+      <c r="F5" s="7">
+        <f>B5/D5</f>
+        <v>0.63563484708063023</v>
+      </c>
+      <c r="G5" s="7">
+        <f>C5/D5</f>
+        <v>0.36436515291936977</v>
+      </c>
+      <c r="H5">
+        <f>SUM(B5:B6)</f>
+        <v>87432</v>
+      </c>
+      <c r="I5">
+        <f>SUM(C5:C6)</f>
+        <v>56287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6">
+        <v>46281</v>
+      </c>
+      <c r="C6">
+        <v>32698</v>
+      </c>
+      <c r="D6">
+        <f>B6+C6</f>
+        <v>78979</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Classes</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" ref="F6" si="3">B6/D6</f>
+        <v>0.58599121285404976</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" ref="G6" si="4">C6/D6</f>
+        <v>0.41400878714595019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+      <c r="F7" t="str">
+        <f>F4</f>
+        <v>Typed</v>
+      </c>
+      <c r="G7" t="str">
+        <f>G4</f>
+        <v>Untyped</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -40662,7 +42015,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -42320,7 +43672,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J37:J38"/>
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -42835,10 +44187,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -42850,105 +44202,153 @@
     <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="8">
+        <f>B2/100</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C13" si="0">B3/100</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="6">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="6">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="6">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="6">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="6">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="6">
         <v>73</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -42979,10 +44379,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -42994,104 +44394,161 @@
     <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="8">
+        <f>B2/100</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C13" si="0">B3/100</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13">
         <v>16</v>
       </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -43103,10 +44560,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -43120,101 +44577,152 @@
     <col min="10" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="8">
+        <f>B1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="8">
+        <f t="shared" ref="C2:C12" si="0">B2/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="8">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/articles/aosd_2014/graphs.xlsx
+++ b/articles/aosd_2014/graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Size Distribution" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="size_priMethodReturn" sheetId="16" r:id="rId10"/>
     <sheet name="Tests+Scripts" sheetId="22" r:id="rId11"/>
     <sheet name="Programmers Background" sheetId="19" r:id="rId12"/>
+    <sheet name="commits+d" sheetId="23" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="age_distribution" localSheetId="3">'Age Distribution'!#REF!</definedName>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="127">
   <si>
     <t>Static</t>
   </si>
@@ -468,6 +469,27 @@
   <si>
     <t>Project Size</t>
   </si>
+  <si>
+    <t>percentil</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>stddev</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Spearman</t>
+  </si>
 </sst>
 </file>
 
@@ -15664,11 +15686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2050080568"/>
-        <c:axId val="2050073656"/>
+        <c:axId val="2119460952"/>
+        <c:axId val="2119454040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2050080568"/>
+        <c:axId val="2119460952"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -15707,14 +15729,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050073656"/>
+        <c:crossAx val="2119454040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="8.0"/>
         <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2050073656"/>
+        <c:axId val="2119454040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -15735,7 +15757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050080568"/>
+        <c:crossAx val="2119460952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -15929,11 +15951,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2047971528"/>
-        <c:axId val="2047974776"/>
+        <c:axId val="2107180648"/>
+        <c:axId val="2107183816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2047971528"/>
+        <c:axId val="2107180648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15952,7 +15974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047974776"/>
+        <c:crossAx val="2107183816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15960,7 +15982,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047974776"/>
+        <c:axId val="2107183816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16001,7 +16023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047971528"/>
+        <c:crossAx val="2107180648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -16183,11 +16205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2047908568"/>
-        <c:axId val="2047880040"/>
+        <c:axId val="2106886648"/>
+        <c:axId val="2106876792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2047908568"/>
+        <c:axId val="2106886648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16216,7 +16238,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047880040"/>
+        <c:crossAx val="2106876792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16224,7 +16246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047880040"/>
+        <c:axId val="2106876792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16254,7 +16276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047908568"/>
+        <c:crossAx val="2106886648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16434,11 +16456,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2052315624"/>
-        <c:axId val="2052321112"/>
+        <c:axId val="2106750952"/>
+        <c:axId val="2106706488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2052315624"/>
+        <c:axId val="2106750952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16460,14 +16482,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2052321112"/>
+        <c:crossAx val="2106706488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16475,7 +16496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2052321112"/>
+        <c:axId val="2106706488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -16500,14 +16521,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2052315624"/>
+        <c:crossAx val="2106750952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -16688,11 +16708,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2052362536"/>
-        <c:axId val="2052368008"/>
+        <c:axId val="2106620600"/>
+        <c:axId val="2106626168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2052362536"/>
+        <c:axId val="2106620600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16721,7 +16741,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2052368008"/>
+        <c:crossAx val="2106626168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16729,7 +16749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2052368008"/>
+        <c:axId val="2106626168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -16761,7 +16781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2052362536"/>
+        <c:crossAx val="2106620600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -16942,11 +16962,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2052409112"/>
-        <c:axId val="2052414584"/>
+        <c:axId val="2109365560"/>
+        <c:axId val="2109347608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2052409112"/>
+        <c:axId val="2109365560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16968,14 +16988,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2052414584"/>
+        <c:crossAx val="2109347608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16983,7 +17002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2052414584"/>
+        <c:axId val="2109347608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -17008,14 +17027,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2052409112"/>
+        <c:crossAx val="2109365560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -17089,7 +17107,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17266,11 +17283,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2064341336"/>
-        <c:axId val="2064344664"/>
+        <c:axId val="2109280632"/>
+        <c:axId val="2109283016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2064341336"/>
+        <c:axId val="2109280632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17279,7 +17296,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064344664"/>
+        <c:crossAx val="2109283016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17287,7 +17304,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064344664"/>
+        <c:axId val="2109283016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17311,7 +17328,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
@@ -17338,14 +17354,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064341336"/>
+        <c:crossAx val="2109280632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -17529,11 +17544,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2064385800"/>
-        <c:axId val="2064387288"/>
+        <c:axId val="2109253144"/>
+        <c:axId val="2109219448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2064385800"/>
+        <c:axId val="2109253144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17552,7 +17567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064387288"/>
+        <c:crossAx val="2109219448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17560,7 +17575,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064387288"/>
+        <c:axId val="2109219448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17601,7 +17616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064385800"/>
+        <c:crossAx val="2109253144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -17798,11 +17813,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2064426280"/>
-        <c:axId val="2064427768"/>
+        <c:axId val="2109165592"/>
+        <c:axId val="2109168840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2064426280"/>
+        <c:axId val="2109165592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17821,7 +17836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064427768"/>
+        <c:crossAx val="2109168840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17829,7 +17844,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064427768"/>
+        <c:axId val="2109168840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17870,7 +17885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064426280"/>
+        <c:crossAx val="2109165592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -18019,11 +18034,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2052454792"/>
-        <c:axId val="2052456904"/>
+        <c:axId val="2109204536"/>
+        <c:axId val="2109207880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2052454792"/>
+        <c:axId val="2109204536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18042,7 +18057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2052456904"/>
+        <c:crossAx val="2109207880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18050,7 +18065,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2052456904"/>
+        <c:axId val="2109207880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.45"/>
@@ -18093,7 +18108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2052454792"/>
+        <c:crossAx val="2109204536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18123,6 +18138,153 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'commits+d'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'commits+d'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'commits+d'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.264118940794077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33652816679064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.345818892400489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38802689253495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2140087704"/>
+        <c:axId val="2140084536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140087704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2140084536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2140084536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2140087704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -18225,11 +18387,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2050012696"/>
-        <c:axId val="2050009640"/>
+        <c:axId val="2119387448"/>
+        <c:axId val="2119384392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2050012696"/>
+        <c:axId val="2119387448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18248,7 +18410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050009640"/>
+        <c:crossAx val="2119384392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18256,7 +18418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050009640"/>
+        <c:axId val="2119384392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18277,7 +18439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050012696"/>
+        <c:crossAx val="2119387448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18307,6 +18469,623 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'commits+d'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'commits+d'!$A$11:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'commits+d'!$B$11:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.239960888680963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.296060550033755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.300212730266781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.338194454782289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.344566838485272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.334921040533574</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.344959707325737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40740890423559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.382838448695757</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.346621575024097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2139105208"/>
+        <c:axId val="2141518008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2139105208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2141518008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2141518008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2139105208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'commits+d'!$A$23:$A$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="111"/>
+                <c:pt idx="0">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.948683298050513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.894427190999916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.866025403784438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.780720058358826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.774596669241483</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.748704885927145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.630061919161936</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.59299945332888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.589469886826076</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.487417436675953</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.417786374293674</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.356348322549899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.334946922651617</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.311798927039175</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.290928682725856</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.273861278752583</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.257142857142857</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.21251185925162</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.194477793976367</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.169515875905202</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.164887544065348</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.152147483430769</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.151794185179729</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.0790277206784086</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.0727272727272725</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.0598813130956632</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.00613543119139569</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0280210587335331</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0424242424242434</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0579771035652447</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.085106776115209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0965525507507033</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.115954207130489</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.164868559426969</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.164939977965676</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.173931310695734</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.187878787878787</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.203596464525254</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.211272844561199</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.223606797749979</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.235004835540192</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.252138191695742</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.259437260831385</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.278046015912401</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.291121798367915</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.302749589396148</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.307793505625546</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.316110882713633</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.325177853144119</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.351467511677403</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.353553390593273</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.357575757575757</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.359287878573977</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.359287878573977</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.384153482991035</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.395203378419454</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.401968708219628</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.407687124163605</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.410391340834061</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.410391340834061</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.411055997361713</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.416443419194297</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.426693006554129</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.450468731347779</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.460255074815647</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.491689171894441</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.542857142857142</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.571455504644311</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.575757575757575</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.576353978077688</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.633333333333333</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.66688592885535</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.672292645452814</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.679510674288195</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.706599494528822</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.737864787372621</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.737864787372621</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.745454545454545</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.745869853982891</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.774596669241483</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.790569415042094</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.790569415042094</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.790569415042094</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.809523809523809</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.811679449913427</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.866025403784438</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.866025403784438</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.87208159927238</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.882918713441647</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.948683298050513</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.954313515420527</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.985610760609162</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2114423992"/>
+        <c:axId val="2119423256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2114423992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2119423256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2119423256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2114423992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -18433,11 +19212,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2048884888"/>
-        <c:axId val="2048887928"/>
+        <c:axId val="2119237704"/>
+        <c:axId val="2119234648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048884888"/>
+        <c:axId val="2119237704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18456,7 +19235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048887928"/>
+        <c:crossAx val="2119234648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18464,7 +19243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048887928"/>
+        <c:axId val="2119234648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18485,7 +19264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048884888"/>
+        <c:crossAx val="2119237704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18927,11 +19706,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2048853048"/>
-        <c:axId val="2048814824"/>
+        <c:axId val="2119198440"/>
+        <c:axId val="2119190216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2048853048"/>
+        <c:axId val="2119198440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60.0"/>
@@ -18970,14 +19749,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048814824"/>
+        <c:crossAx val="2119190216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="6.0"/>
         <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2048814824"/>
+        <c:axId val="2119190216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -18998,7 +19777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048853048"/>
+        <c:crossAx val="2119198440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -19218,11 +19997,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2048710344"/>
-        <c:axId val="2048694408"/>
+        <c:axId val="2107275816"/>
+        <c:axId val="2107606168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048710344"/>
+        <c:axId val="2107275816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19241,7 +20020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048694408"/>
+        <c:crossAx val="2107606168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19249,7 +20028,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048694408"/>
+        <c:axId val="2107606168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19290,7 +20069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048710344"/>
+        <c:crossAx val="2107275816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -19315,7 +20094,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -19375,7 +20153,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -19654,11 +20431,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2048264824"/>
-        <c:axId val="2048254744"/>
+        <c:axId val="2107364152"/>
+        <c:axId val="2107262952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048264824"/>
+        <c:axId val="2107364152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19667,7 +20444,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048254744"/>
+        <c:crossAx val="2107262952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19675,7 +20452,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048254744"/>
+        <c:axId val="2107262952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19699,7 +20476,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
@@ -19726,14 +20502,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048264824"/>
+        <c:crossAx val="2107364152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -19929,11 +20704,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2048103288"/>
-        <c:axId val="2048106536"/>
+        <c:axId val="2119172344"/>
+        <c:axId val="2107612008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048103288"/>
+        <c:axId val="2119172344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19952,7 +20727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048106536"/>
+        <c:crossAx val="2107612008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19960,7 +20735,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048106536"/>
+        <c:axId val="2107612008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20001,7 +20776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048103288"/>
+        <c:crossAx val="2119172344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -20210,11 +20985,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2048053176"/>
-        <c:axId val="2048056424"/>
+        <c:axId val="2107372648"/>
+        <c:axId val="2107356504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048053176"/>
+        <c:axId val="2107372648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20233,7 +21008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048056424"/>
+        <c:crossAx val="2107356504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20241,7 +21016,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048056424"/>
+        <c:axId val="2107356504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20282,7 +21057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048053176"/>
+        <c:crossAx val="2107372648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -20491,11 +21266,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2047998904"/>
-        <c:axId val="2048002152"/>
+        <c:axId val="2107236296"/>
+        <c:axId val="2107239464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2047998904"/>
+        <c:axId val="2107236296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20514,7 +21289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048002152"/>
+        <c:crossAx val="2107239464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20522,7 +21297,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048002152"/>
+        <c:axId val="2107239464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20563,7 +21338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047998904"/>
+        <c:crossAx val="2107236296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -20794,6 +21569,101 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -41797,7 +42667,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -41921,6 +42790,935 @@
       <c r="H4" s="7">
         <f t="shared" si="2"/>
         <v>0.28730245231607632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.264118940794077</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.22190513752768201</v>
+      </c>
+      <c r="F2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0.33652816679064002</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.25873469769923702</v>
+      </c>
+      <c r="F3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0.34581889240048902</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.25517859873204402</v>
+      </c>
+      <c r="F4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>0.38802689253494999</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.254640620335009</v>
+      </c>
+      <c r="F5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0.23996088868096299</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.19564513386949001</v>
+      </c>
+      <c r="F11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.29606055003375498</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.24575285323222501</v>
+      </c>
+      <c r="F12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.30021273026678102</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.23388671074349701</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>0.33819445478228899</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.28295980049108599</v>
+      </c>
+      <c r="F14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>0.34456683848527198</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.25719138551802501</v>
+      </c>
+      <c r="F15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>0.33492104053357402</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0.25591488274399499</v>
+      </c>
+      <c r="F16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>0.344959707325737</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.24024793619146401</v>
+      </c>
+      <c r="F17">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>0.40740890423559001</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0.28742424675105899</v>
+      </c>
+      <c r="F18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19">
+        <v>0.38283844869575701</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0.248221866396588</v>
+      </c>
+      <c r="F19">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.34662157502409702</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E20">
+        <v>0.222459211272235</v>
+      </c>
+      <c r="F20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>-0.94868329805051299</v>
+      </c>
+      <c r="C25">
+        <v>0.23274904440654701</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.51420065757618805</v>
+      </c>
+      <c r="G25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>-0.89442719099991597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>-0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>-0.78072005835882596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>-0.77459666924148296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>-0.74870488592714501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>-0.63006191916193599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>-0.59299945332888004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>-0.58946988682607604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>-0.487417436675953</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>-0.41778637429367399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>-0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>-0.35634832254989901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>-0.33494692265161702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>-0.311798927039175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>-0.29092868272585598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>-0.27386127875258298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>-0.25714285714285701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>-0.21251185925162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>-0.194477793976367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>-0.16951587590520201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>-0.164887544065348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>-0.152147483430769</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>-0.15179418517972901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>-7.9027720678408603E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>-7.2727272727272502E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>-5.9881313095663198E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>-6.1354311913956903E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>2.80210587335331E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>4.2424242424243398E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>5.79771035652447E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>8.5106776115209004E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>9.6552550750703306E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>0.115954207130489</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>0.16486855942696901</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>0.164939977965676</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>0.173931310695734</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>0.18787878787878701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>0.19999999999999901</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>0.20359646452525401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>0.21127284456119899</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>0.22360679774997899</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>0.235004835540192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>0.25213819169574198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>0.25943726083138502</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>0.27804601591240102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>0.29112179836791502</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>0.30274958939614799</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>0.30779350562554603</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>0.31611088271363302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>0.32517785314411901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>0.35146751167740298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>0.35355339059327301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>0.35757575757575699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>0.35928787857397698</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.35928787857397698</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>0.38415348299103502</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>0.39520337841945402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>0.40196870821962799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>0.40768712416360497</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>0.41039134083406098</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>0.41039134083406098</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>0.411055997361713</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>0.416443419194297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>0.42669300655412901</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>0.45046873134777898</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>0.46025507481564698</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>0.491689171894441</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>0.54285714285714204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>0.57145550464431105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>0.57575757575757502</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>0.57635397807768796</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>0.61904761904761896</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>0.63333333333333297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>0.66688592885535003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>0.67229264545281398</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>0.679510674288195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>0.70659949452882198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>0.73786478737262096</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>0.73786478737262096</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>0.74545454545454504</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>0.74586985398289096</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>0.77459666924148296</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>0.79056941504209399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>0.79056941504209399</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>0.79056941504209399</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>0.80952380952380898</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>0.811679449913427</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>0.87208159927238005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>0.88291871344164696</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>0.94868329805051299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>0.954313515420527</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>0.98561076060916197</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -44189,7 +45987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -44548,7 +46346,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/articles/aosd_2014/graphs.xlsx
+++ b/articles/aosd_2014/graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Size Distribution" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Tests+Scripts" sheetId="22" r:id="rId11"/>
     <sheet name="Programmers Background" sheetId="19" r:id="rId12"/>
     <sheet name="commits+d" sheetId="23" r:id="rId13"/>
+    <sheet name="commits+d spearman" sheetId="24" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="age_distribution" localSheetId="3">'Age Distribution'!#REF!</definedName>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="127">
   <si>
     <t>Static</t>
   </si>
@@ -15713,6 +15714,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -16988,6 +16990,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -17027,6 +17030,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -17107,6 +17111,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17328,6 +17333,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
@@ -17361,6 +17367,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -18160,78 +18167,74 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.107815157874805"/>
+          <c:y val="0.138635588545062"/>
+          <c:w val="0.850727439130229"/>
+          <c:h val="0.599337228547069"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'commits+d'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mean</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Untyped Declarations</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </c:spPr>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>'commits+d'!$A$2:$A$5</c:f>
+              <c:f>'commits+d'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.239960888680963</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.0</c:v>
+                  <c:v>0.296060550033755</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>0.300212730266781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.0</c:v>
+                  <c:v>0.338194454782289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.344566838485272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.334921040533574</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.344959707325737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40740890423559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.382838448695757</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.346621575024097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'commits+d'!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.264118940794077</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.33652816679064</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.345818892400489</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.38802689253495</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -18241,50 +18244,111 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2140087704"/>
-        <c:axId val="2140084536"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2140087704"/>
+        <c:gapWidth val="200"/>
+        <c:axId val="2141777096"/>
+        <c:axId val="2141778856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2141777096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Project Size (Lines of Code)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2141778856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2141778856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Declarations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140084536"/>
+        <c:crossAx val="2141777096"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="2140084536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140087704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+      </c:dTable>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -18491,10 +18555,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -18504,96 +18564,508 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'commits+d'!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mean</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'commits+d'!$A$11:$A$20</c:f>
+              <c:f>'commits+d spearman'!$A$1:$A$164</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="164"/>
                 <c:pt idx="0">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.948683298050513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.894427190999916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.866025403784438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.811679449913427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.782623792124926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.780720058358826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.774596669241483</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.748704885927145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.630061919161936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.59299945332888</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.589469886826076</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.487417436675953</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.450468731347779</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.447213595499958</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.417786374293674</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.356348322549899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.334946922651617</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.311798927039175</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.299406565478314</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.290928682725856</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.273861278752583</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.265079480991533</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.257142857142857</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.21251185925162</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.20519567041703</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.194477793976367</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.183428213876463</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.171654488456072</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.169515875905202</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.164887544065348</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.153896752812772</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.152147483430769</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.151794185179729</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.101709525543121</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.0857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.0848625128695522</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.0790277206784086</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.0753144667880149</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.0727272727272725</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.0714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.0598813130956632</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.0285714285714303</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.00613543119139569</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'commits+d'!$B$11:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.239960888680963</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.296060550033755</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.300212730266781</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.338194454782289</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.344566838485272</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.334921040533574</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.344959707325737</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.40740890423559</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.382838448695757</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.346621575024097</c:v>
+                <c:pt idx="50">
+                  <c:v>0.0179212620683171</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0280210587335331</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0424242424242434</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.049544724391339</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0573964021394848</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0579771035652447</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.085106776115209</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0867588953456727</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0910765111078372</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0965525507507033</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.115954207130489</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.164868559426969</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.164939977965676</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.173931310695734</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.187878787878787</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.191419257746042</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.203596464525254</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.211272844561199</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.223606797749979</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.235004835540192</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.252138191695742</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.259437260831385</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.278046015912401</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.291121798367915</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.299406565478314</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.302749589396148</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.304255531702265</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.307793505625546</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.316110882713633</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.325177853144119</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.351467511677403</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.353553390593273</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.356424077704011</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.357575757575757</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.359287878573977</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.359287878573977</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.384153482991035</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.395203378419454</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.401968708219628</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.407687124163605</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.410391340834061</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.410391340834061</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.411055997361713</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.416443419194297</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.426693006554129</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.433333333333333</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.450468731347779</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.460255074815647</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.484881137876426</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.487950036474266</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.491689171894441</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.504524979109513</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.514869798192619</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.516100229611078</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.542857142857142</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.564288093646834</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.571455504644311</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.575757575757575</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.576353978077688</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.615587011251092</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.633333333333333</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.66688592885535</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.66688592885535</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.672292645452814</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.679510674288195</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.698253251826753</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.706599494528822</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.737864787372621</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.737864787372621</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.745454545454545</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.745869853982891</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.758970925898645</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.774596669241483</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.784415584415584</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.790569415042094</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.790569415042094</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.790569415042094</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.805117560182539</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.809523809523809</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.811679449913427</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.866025403784438</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.866025403784438</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.866025403784438</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.866025403784438</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.87208159927238</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.87958191419918</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.880406274042428</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.882918713441647</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.885714285714285</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.942857142857142</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.948683298050513</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.954313515420527</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.985610760609162</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18608,26 +19080,25 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139105208"/>
-        <c:axId val="2141518008"/>
+        <c:axId val="2142978200"/>
+        <c:axId val="2142980472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2139105208"/>
+        <c:axId val="2142978200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141518008"/>
+        <c:crossAx val="2142980472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2141518008"/>
+        <c:axId val="2142980472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18638,443 +19109,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139105208"/>
+        <c:crossAx val="2142978200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'commits+d'!$A$23:$A$133</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="111"/>
-                <c:pt idx="0">
-                  <c:v>-1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.948683298050513</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.894427190999916</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.866025403784438</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.780720058358826</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.774596669241483</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.748704885927145</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.630061919161936</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.59299945332888</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.589469886826076</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.487417436675953</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.417786374293674</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.356348322549899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.334946922651617</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.311798927039175</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.290928682725856</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.273861278752583</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.257142857142857</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.21251185925162</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.194477793976367</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.169515875905202</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.164887544065348</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.152147483430769</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.151794185179729</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.0790277206784086</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.0727272727272725</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.0598813130956632</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.00613543119139569</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0280210587335331</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0424242424242434</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0579771035652447</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.085106776115209</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0965525507507033</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.115954207130489</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.164868559426969</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.164939977965676</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.173931310695734</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.187878787878787</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.203596464525254</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.211272844561199</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.223606797749979</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.235004835540192</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.252138191695742</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.259437260831385</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.278046015912401</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.291121798367915</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.302749589396148</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.307793505625546</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.316110882713633</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.325177853144119</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.351467511677403</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.353553390593273</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.357575757575757</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.359287878573977</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.359287878573977</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.384153482991035</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.395203378419454</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.401968708219628</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.407687124163605</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.410391340834061</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.410391340834061</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.411055997361713</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.416443419194297</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.426693006554129</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.450468731347779</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.460255074815647</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.491689171894441</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.542857142857142</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.571455504644311</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.575757575757575</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.576353978077688</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.619047619047619</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.633333333333333</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.66688592885535</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.672292645452814</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.679510674288195</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.706599494528822</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.737864787372621</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.737864787372621</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.745454545454545</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.745869853982891</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.774596669241483</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.790569415042094</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.790569415042094</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.790569415042094</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.809523809523809</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.811679449913427</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.866025403784438</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.866025403784438</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.87208159927238</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.882918713441647</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.948683298050513</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.954313515420527</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.985610760609162</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2114423992"/>
-        <c:axId val="2119423256"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2114423992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119423256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2119423256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114423992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -20092,22 +20129,6 @@
         </c:txPr>
       </c:dTable>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="1200">
-              <a:latin typeface="Verdana"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="1"/>
@@ -21578,15 +21599,52 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21600,66 +21658,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -42805,10 +42803,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -42838,7 +42836,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.264118940794077</v>
+        <v>0.23996088868096299</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -42847,18 +42845,18 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.22190513752768201</v>
+        <v>0.19564513386949001</v>
       </c>
       <c r="F2">
-        <v>262</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.33652816679064002</v>
+        <v>0.29606055003375498</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -42867,18 +42865,18 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.25873469769923702</v>
+        <v>0.24575285323222501</v>
       </c>
       <c r="F3">
-        <v>199</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>0.34581889240048902</v>
+        <v>0.30021273026678102</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -42887,18 +42885,18 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.25517859873204402</v>
+        <v>0.23388671074349701</v>
       </c>
       <c r="F4">
-        <v>231</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>0.38802689253494999</v>
+        <v>0.33819445478228899</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -42907,438 +42905,469 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.254640620335009</v>
+        <v>0.28295980049108599</v>
       </c>
       <c r="F5">
-        <v>179</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.34456683848527198</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.25719138551802501</v>
+      </c>
+      <c r="F6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.33492104053357402</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.25591488274399499</v>
+      </c>
+      <c r="F7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.344959707325737</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.24024793619146401</v>
+      </c>
+      <c r="F8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>0.40740890423559001</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.28742424675105899</v>
+      </c>
+      <c r="F9">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" t="s">
-        <v>125</v>
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>0.38283844869575701</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.248221866396588</v>
+      </c>
+      <c r="F10">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B11">
-        <v>0.23996088868096299</v>
+        <v>0.34662157502409702</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E11">
+        <v>0.222459211272235</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G164"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>-0.94868329805051299</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>-0.86602540378443804</v>
+      </c>
+      <c r="C5">
+        <v>0.23274904440654701</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>0.19564513386949001</v>
-      </c>
-      <c r="F11">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F5">
+        <v>0.51420065757618805</v>
+      </c>
+      <c r="G5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>-0.811679449913427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>-0.78262379212492605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>-0.78072005835882596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>-0.77459666924148296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>-0.74870488592714501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>-0.63006191916193599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.29606055003375498</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0.24575285323222501</v>
-      </c>
-      <c r="F12">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.59299945332888004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>0.30021273026678102</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0.23388671074349701</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.58946988682607604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>0.33819445478228899</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0.28295980049108599</v>
-      </c>
-      <c r="F14">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>0.34456683848527198</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0.25719138551802501</v>
-      </c>
-      <c r="F15">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
-        <v>50</v>
-      </c>
-      <c r="B16">
-        <v>0.33492104053357402</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0.25591488274399499</v>
-      </c>
-      <c r="F16">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.487417436675953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17">
-        <v>60</v>
-      </c>
-      <c r="B17">
-        <v>0.344959707325737</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0.24024793619146401</v>
-      </c>
-      <c r="F17">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>-0.45046873134777898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18">
-        <v>70</v>
-      </c>
-      <c r="B18">
-        <v>0.40740890423559001</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0.28742424675105899</v>
-      </c>
-      <c r="F18">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>-0.44721359549995798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19">
-        <v>0.38283844869575701</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0.248221866396588</v>
-      </c>
-      <c r="F19">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.41778637429367399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20">
-        <v>90</v>
-      </c>
-      <c r="B20">
-        <v>0.34662157502409702</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="E20">
-        <v>0.222459211272235</v>
-      </c>
-      <c r="F20">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>-0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>-0.35634832254989901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23">
-        <v>-1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.33494692265161702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24">
-        <v>-1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.311798927039175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25">
-        <v>-0.94868329805051299</v>
-      </c>
-      <c r="C25">
-        <v>0.23274904440654701</v>
-      </c>
-      <c r="D25">
-        <v>-1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.51420065757618805</v>
-      </c>
-      <c r="G25">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.29940656547831401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26">
-        <v>-0.89442719099991597</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.29092868272585598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27">
-        <v>-0.86602540378443804</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.27386127875258298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28">
-        <v>-0.78072005835882596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.265079480991533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29">
-        <v>-0.77459666924148296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.25714285714285701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30">
-        <v>-0.74870488592714501</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.21251185925162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31">
-        <v>-0.63006191916193599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.20519567041702999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32">
-        <v>-0.59299945332888004</v>
+        <v>-0.194477793976367</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>-0.58946988682607604</v>
+        <v>-0.18342821387646299</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>-0.5</v>
+        <v>-0.17165448845607201</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>-0.487417436675953</v>
+        <v>-0.16951587590520201</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>-0.41778637429367399</v>
+        <v>-0.164887544065348</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>-0.4</v>
+        <v>-0.15389675281277199</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>-0.39999999999999902</v>
+        <v>-0.152147483430769</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>-0.35634832254989901</v>
+        <v>-0.15179418517972901</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>-0.33494692265161702</v>
+        <v>-0.101709525543121</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>-0.311798927039175</v>
+        <v>-8.5714285714286104E-2</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>-0.29092868272585598</v>
+        <v>-8.4862512869552195E-2</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>-0.27386127875258298</v>
+        <v>-7.9027720678408603E-2</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>-0.25714285714285701</v>
+        <v>-7.53144667880149E-2</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>-0.21251185925162</v>
+        <v>-7.2727272727272502E-2</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>-0.194477793976367</v>
+        <v>-7.1428571428571494E-2</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>-0.16951587590520201</v>
+        <v>-5.9881313095663198E-2</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>-0.164887544065348</v>
+        <v>-2.8571428571430298E-2</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>-0.152147483430769</v>
+        <v>-6.1354311913956903E-3</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>-0.15179418517972901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>-7.9027720678408603E-2</v>
+        <v>1.7921262068317099E-2</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>-7.2727272727272502E-2</v>
+        <v>2.80210587335331E-2</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>-5.9881313095663198E-2</v>
+        <v>4.2424242424243398E-2</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>-6.1354311913956903E-3</v>
+        <v>4.9544724391339001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>2.80210587335331E-2</v>
+        <v>5.7396402139484798E-2</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>4.2424242424243398E-2</v>
+        <v>5.79771035652447E-2</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>5.79771035652447E-2</v>
+        <v>7.1428571428571494E-2</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -43348,376 +43377,531 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>9.6552550750703306E-2</v>
+        <v>8.6758895345672701E-2</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.115954207130489</v>
+        <v>9.1076511107837196E-2</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.16486855942696901</v>
+        <v>9.6552550750703306E-2</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.164939977965676</v>
+        <v>0.115954207130489</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.173931310695734</v>
+        <v>0.16486855942696901</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.18787878787878701</v>
+        <v>0.164939977965676</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.19999999999999901</v>
+        <v>0.173931310695734</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0.2</v>
+        <v>0.18787878787878701</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.20359646452525401</v>
+        <v>0.19141925774604199</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.21127284456119899</v>
+        <v>0.19999999999999901</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0.22360679774997899</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.235004835540192</v>
+        <v>0.20359646452525401</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.25213819169574198</v>
+        <v>0.21127284456119899</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.25943726083138502</v>
+        <v>0.22360679774997899</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.27804601591240102</v>
+        <v>0.235004835540192</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.29112179836791502</v>
+        <v>0.25213819169574198</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0.30274958939614799</v>
+        <v>0.25943726083138502</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.30779350562554603</v>
+        <v>0.27804601591240102</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.31611088271363302</v>
+        <v>0.29112179836791502</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>0.32517785314411901</v>
+        <v>0.29940656547831401</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.35146751167740298</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.35355339059327301</v>
+        <v>0.30274958939614799</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.35757575757575699</v>
+        <v>0.30425553170226499</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.35928787857397698</v>
+        <v>0.30779350562554603</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.35928787857397698</v>
+        <v>0.31611088271363302</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.38415348299103502</v>
+        <v>0.32517785314411901</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.39520337841945402</v>
+        <v>0.35146751167740298</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0.39999999999999902</v>
+        <v>0.35355339059327301</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.39999999999999902</v>
+        <v>0.35642407770401102</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.40196870821962799</v>
+        <v>0.35757575757575699</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.40768712416360497</v>
+        <v>0.35928787857397698</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.41039134083406098</v>
+        <v>0.35928787857397698</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.41039134083406098</v>
+        <v>0.38415348299103502</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.411055997361713</v>
+        <v>0.39520337841945402</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.416443419194297</v>
+        <v>0.39999999999999902</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.42669300655412901</v>
+        <v>0.39999999999999902</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.45046873134777898</v>
+        <v>0.40196870821962799</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.46025507481564698</v>
+        <v>0.40768712416360497</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.491689171894441</v>
+        <v>0.41039134083406098</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.5</v>
+        <v>0.41039134083406098</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.54285714285714204</v>
+        <v>0.411055997361713</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.57142857142857095</v>
+        <v>0.416443419194297</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.57145550464431105</v>
+        <v>0.42669300655412901</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.57575757575757502</v>
+        <v>0.43333333333333302</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.57635397807768796</v>
+        <v>0.45046873134777898</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.61904761904761896</v>
+        <v>0.46025507481564698</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.63333333333333297</v>
+        <v>0.484881137876426</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.66688592885535003</v>
+        <v>0.48795003647426599</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.67229264545281398</v>
+        <v>0.491689171894441</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.679510674288195</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.7</v>
+        <v>0.50452497910951299</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.70659949452882198</v>
+        <v>0.51486979819261902</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.73786478737262096</v>
+        <v>0.51610022961107804</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.73786478737262096</v>
+        <v>0.54285714285714204</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.74545454545454504</v>
+        <v>0.56428809364683397</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.74586985398289096</v>
+        <v>0.57142857142857095</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.77459666924148296</v>
+        <v>0.57145550464431105</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.79056941504209399</v>
+        <v>0.57575757575757502</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.79056941504209399</v>
+        <v>0.57635397807768796</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.79056941504209399</v>
+        <v>0.61558701125109205</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.8</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.8</v>
+        <v>0.63333333333333297</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.80952380952380898</v>
+        <v>0.66688592885535003</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.811679449913427</v>
+        <v>0.66688592885535003</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.85714285714285698</v>
+        <v>0.67229264545281398</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.86602540378443804</v>
+        <v>0.679510674288195</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.86602540378443804</v>
+        <v>0.69825325182675302</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.87208159927238005</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.88291871344164696</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.94868329805051299</v>
+        <v>0.70659949452882198</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.954313515420527</v>
+        <v>0.73786478737262096</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.98561076060916197</v>
+        <v>0.73786478737262096</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>1</v>
+        <v>0.74545454545454504</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>1</v>
+        <v>0.74586985398289096</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
+        <v>0.75897092589864501</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>0.77459666924148296</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>0.78441558441558401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>0.79056941504209399</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>0.79056941504209399</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>0.79056941504209399</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>0.80511756018253899</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>0.80952380952380898</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>0.811679449913427</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>0.87208159927238005</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>0.87958191419917997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>0.88040627404242799</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>0.88291871344164696</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>0.88571428571428501</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>0.94285714285714195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>0.94868329805051299</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>0.954313515420527</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>0.98561076060916197</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
         <v>1</v>
       </c>
     </row>
@@ -45290,7 +45474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/articles/aosd_2014/graphs.xlsx
+++ b/articles/aosd_2014/graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Size Distribution" sheetId="10" r:id="rId1"/>
@@ -496,8 +496,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -553,7 +554,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="78">
+  <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -632,8 +633,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -659,8 +666,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="78">
+  <cellStyles count="84">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -699,6 +709,9 @@
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -737,6 +750,9 @@
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
@@ -18188,7 +18204,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Untyped Declarations</c:v>
+            <c:v>Untyped</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -18200,7 +18216,7 @@
             <c:numRef>
               <c:f>'commits+d'!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.239960888680963</c:v>
@@ -18266,12 +18282,24 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Project Size (Lines of Code)</a:t>
+                  <a:t>Number</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of changes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.422416025937934"/>
+              <c:y val="0.881933531035893"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -18314,7 +18342,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -18565,16 +18593,651 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
             <a:ln w="47625">
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'commits+d spearman'!$B$1:$B$203</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="203"/>
+                <c:pt idx="0">
+                  <c:v>0.00492610837438424</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00985221674876847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0147783251231527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0197044334975369</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0246305418719212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0295566502463054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0344827586206896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0394088669950739</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0443349753694581</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0492610837438424</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0541871921182266</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0591133004926108</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0640394088669951</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0689655172413793</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0738916256157635</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0788177339901478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.083743842364532</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0886699507389162</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0935960591133005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0985221674876847</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.103448275862069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.108374384236453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.113300492610837</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.118226600985222</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.123152709359606</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12807881773399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.133004926108374</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.137931034482759</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.147783251231527</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.152709359605911</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.157635467980296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16256157635468</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.167487684729064</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.177339901477833</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.182266009852217</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.187192118226601</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.192118226600985</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.197044334975369</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.201970443349754</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.206896551724138</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.211822660098522</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.216748768472906</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.221674876847291</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.226600985221675</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.231527093596059</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.236453201970443</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.241379310344828</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.246305418719212</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.251231527093596</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.25615763546798</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.261083743842365</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.266009852216749</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.270935960591133</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.275862068965517</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.280788177339901</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.29064039408867</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.295566502463054</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.300492610837438</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.305418719211823</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.310344827586207</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.315270935960591</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.320197044334975</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32512315270936</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.330049261083744</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.334975369458128</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.339901477832512</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.344827586206897</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.349753694581281</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.354679802955665</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.359605911330049</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.364532019704433</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.369458128078818</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.374384236453202</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.379310344827586</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.38423645320197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.389162561576355</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.394088669950739</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.399014778325123</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.403940886699507</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.408866995073892</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.413793103448276</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.41871921182266</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.423645320197044</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.433497536945813</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.438423645320197</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.443349753694581</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.448275862068965</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.45320197044335</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.458128078817734</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.463054187192118</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.467980295566502</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.472906403940887</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.477832512315271</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.482758620689655</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.487684729064039</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.492610837438424</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.497536945812808</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.502463054187192</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.507389162561576</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.512315270935961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.517241379310345</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.522167487684729</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.527093596059113</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.532019704433498</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.536945812807882</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.541871921182266</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.54679802955665</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.551724137931034</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.556650246305419</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.561576354679803</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.566502463054187</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.576354679802956</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.58128078817734</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.586206896551724</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.591133004926108</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.596059113300493</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.600985221674877</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.605911330049261</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.610837438423645</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.615763546798029</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.620689655172414</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.625615763546798</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.630541871921182</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.635467980295566</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.640394088669951</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.645320197044335</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.650246305418719</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.655172413793103</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.660098522167488</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.665024630541872</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.669950738916256</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.67487684729064</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.679802955665024</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.684729064039409</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.689655172413793</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.694581280788177</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.699507389162561</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.704433497536946</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.70935960591133</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.719211822660098</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.724137931034483</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.729064039408867</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.733990147783251</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.738916256157635</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.74384236453202</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.748768472906404</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.753694581280788</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.758620689655172</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.763546798029557</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.768472906403941</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.773399014778325</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.778325123152709</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.783251231527094</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.788177339901478</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.793103448275862</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.798029556650246</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.802955665024631</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.807881773399015</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.812807881773399</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.817733990147783</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.822660098522167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.827586206896552</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.832512315270936</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.83743842364532</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.842364532019704</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.847290640394089</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.852216748768473</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.862068965517241</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.866995073891626</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.87192118226601</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.876847290640394</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.881773399014778</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.886699507389163</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.891625615763547</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.896551724137931</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.901477832512315</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.906403940886699</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.911330049261084</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.916256157635468</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.921182266009852</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.926108374384236</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.931034482758621</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.935960591133005</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.940886699507389</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.945812807881773</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.950738916256158</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.955665024630542</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.960591133004926</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.96551724137931</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.970443349753695</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.975369458128079</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.980295566502463</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.985221674876847</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.990147783251231</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.995073891625616</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'commits+d spearman'!$A$1:$A$164</c:f>
+              <c:f>'commits+d spearman'!$C$1:$C$203</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="203"/>
                 <c:pt idx="0">
                   <c:v>-1.0</c:v>
                 </c:pt>
@@ -18603,468 +19266,585 @@
                   <c:v>-0.774596669241483</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>-0.770319094916565</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-0.748704885927145</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>-0.698253251826753</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.686274509803921</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>-0.630061919161936</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>-0.59299945332888</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>-0.589469886826076</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>-0.564288093646834</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>-0.487417436675953</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
+                  <c:v>-0.4768525592055</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>-0.450468731347779</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>-0.447213595499958</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
+                  <c:v>-0.439155032826839</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>-0.417786374293674</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="26">
                   <c:v>-0.4</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="27">
                   <c:v>-0.399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="28">
+                  <c:v>-0.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.376851173174091</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>-0.356348322549899</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="31">
+                  <c:v>-0.353553390593273</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>-0.334946922651617</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
                   <c:v>-0.311798927039175</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="34">
                   <c:v>-0.299406565478314</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="35">
+                  <c:v>-0.292303328057814</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>-0.290928682725856</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="37">
                   <c:v>-0.273861278752583</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="38">
                   <c:v>-0.265079480991533</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="39">
                   <c:v>-0.257142857142857</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="40">
+                  <c:v>-0.243975018237133</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.229367451067991</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>-0.21251185925162</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="43">
                   <c:v>-0.20519567041703</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="44">
                   <c:v>-0.194477793976367</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="45">
                   <c:v>-0.183428213876463</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="46">
                   <c:v>-0.171654488456072</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="47">
                   <c:v>-0.169515875905202</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="48">
                   <c:v>-0.164887544065348</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="49">
                   <c:v>-0.153896752812772</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="50">
                   <c:v>-0.152147483430769</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="51">
                   <c:v>-0.151794185179729</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="52">
+                  <c:v>-0.115300250271854</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>-0.101709525543121</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="54">
                   <c:v>-0.0857142857142861</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="55">
                   <c:v>-0.0848625128695522</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="56">
                   <c:v>-0.0790277206784086</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="57">
                   <c:v>-0.0753144667880149</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="58">
+                  <c:v>-0.0731925054711401</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>-0.0727272727272725</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="60">
                   <c:v>-0.0714285714285715</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="61">
                   <c:v>-0.0598813130956632</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="62">
                   <c:v>-0.0285714285714303</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="63">
+                  <c:v>-0.0169515875905197</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>-0.00613543119139569</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="65">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>0.0179212620683171</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="68">
                   <c:v>0.0280210587335331</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="69">
                   <c:v>0.0424242424242434</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="70">
                   <c:v>0.049544724391339</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="71">
                   <c:v>0.0573964021394848</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="72">
                   <c:v>0.0579771035652447</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="73">
                   <c:v>0.0714285714285715</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="74">
                   <c:v>0.085106776115209</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="75">
                   <c:v>0.0867588953456727</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="76">
+                  <c:v>0.0881740892378347</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>0.0910765111078372</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="78">
                   <c:v>0.0965525507507033</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="79">
                   <c:v>0.115954207130489</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="80">
+                  <c:v>0.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>0.164868559426969</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="82">
                   <c:v>0.164939977965676</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="83">
                   <c:v>0.173931310695734</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="84">
                   <c:v>0.187878787878787</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="85">
                   <c:v>0.191419257746042</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="86">
+                  <c:v>0.197574814883725</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>0.199999999999999</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="88">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="89">
                   <c:v>0.203596464525254</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="90">
+                  <c:v>0.210818510677892</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>0.211272844561199</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="92">
+                  <c:v>0.21957751641342</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>0.223606797749979</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="94">
+                  <c:v>0.223606797749979</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>0.235004835540192</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="96">
                   <c:v>0.252138191695742</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="97">
                   <c:v>0.259437260831385</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="98">
+                  <c:v>0.277128548309331</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>0.278046015912401</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="100">
+                  <c:v>0.288365265995728</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>0.291121798367915</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="102">
                   <c:v>0.299406565478314</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="103">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="104">
                   <c:v>0.302749589396148</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="105">
                   <c:v>0.304255531702265</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="106">
                   <c:v>0.307793505625546</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="107">
                   <c:v>0.316110882713633</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="108">
+                  <c:v>0.316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="109">
                   <c:v>0.325177853144119</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="110">
                   <c:v>0.351467511677403</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="111">
                   <c:v>0.353553390593273</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="112">
                   <c:v>0.356424077704011</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="113">
                   <c:v>0.357575757575757</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="114">
                   <c:v>0.359287878573977</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="115">
                   <c:v>0.359287878573977</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="116">
+                  <c:v>0.366446015321524</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>0.384153482991035</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="118">
                   <c:v>0.395203378419454</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="119">
                   <c:v>0.399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="120">
                   <c:v>0.399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="121">
+                  <c:v>0.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
                   <c:v>0.401968708219628</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="123">
                   <c:v>0.407687124163605</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="124">
                   <c:v>0.410391340834061</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="125">
                   <c:v>0.410391340834061</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="126">
                   <c:v>0.411055997361713</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="127">
                   <c:v>0.416443419194297</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="128">
                   <c:v>0.426693006554129</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="129">
                   <c:v>0.433333333333333</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="130">
+                  <c:v>0.43915503282684</c:v>
+                </c:pt>
+                <c:pt idx="131">
                   <c:v>0.450468731347779</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="132">
                   <c:v>0.460255074815647</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="133">
+                  <c:v>0.463816828521958</c:v>
+                </c:pt>
+                <c:pt idx="134">
                   <c:v>0.484881137876426</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="135">
                   <c:v>0.487950036474266</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="136">
+                  <c:v>0.49090909090909</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>0.491689171894441</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="138">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="139">
                   <c:v>0.504524979109513</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="140">
                   <c:v>0.514869798192619</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="141">
                   <c:v>0.516100229611078</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="142">
                   <c:v>0.542857142857142</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="143">
                   <c:v>0.564288093646834</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="144">
+                  <c:v>0.571380044523347</c:v>
+                </c:pt>
+                <c:pt idx="145">
                   <c:v>0.571428571428571</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="146">
                   <c:v>0.571455504644311</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="147">
                   <c:v>0.575757575757575</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="148">
                   <c:v>0.576353978077688</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="149">
                   <c:v>0.615587011251092</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="150">
                   <c:v>0.619047619047619</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="151">
                   <c:v>0.633333333333333</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="152">
                   <c:v>0.66688592885535</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="153">
                   <c:v>0.66688592885535</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="154">
+                  <c:v>0.66688592885535</c:v>
+                </c:pt>
+                <c:pt idx="155">
                   <c:v>0.672292645452814</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="156">
                   <c:v>0.679510674288195</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="157">
                   <c:v>0.698253251826753</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="158">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="159">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="160">
                   <c:v>0.706599494528822</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="161">
                   <c:v>0.737864787372621</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="162">
                   <c:v>0.737864787372621</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="163">
+                  <c:v>0.737864787372621</c:v>
+                </c:pt>
+                <c:pt idx="164">
                   <c:v>0.745454545454545</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="165">
                   <c:v>0.745869853982891</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="166">
                   <c:v>0.758970925898645</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="167">
                   <c:v>0.774596669241483</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="168">
+                  <c:v>0.78334945180064</c:v>
+                </c:pt>
+                <c:pt idx="169">
                   <c:v>0.784415584415584</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="170">
                   <c:v>0.790569415042094</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="171">
                   <c:v>0.790569415042094</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="172">
                   <c:v>0.790569415042094</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="173">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="174">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="175">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="176">
                   <c:v>0.805117560182539</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="177">
                   <c:v>0.809523809523809</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="178">
                   <c:v>0.811679449913427</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="179">
+                  <c:v>0.845154254728516</c:v>
+                </c:pt>
+                <c:pt idx="180">
                   <c:v>0.857142857142857</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="181">
                   <c:v>0.866025403784438</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="182">
                   <c:v>0.866025403784438</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="183">
                   <c:v>0.866025403784438</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="184">
                   <c:v>0.866025403784438</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="185">
                   <c:v>0.87208159927238</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="186">
                   <c:v>0.87958191419918</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="187">
                   <c:v>0.880406274042428</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="188">
                   <c:v>0.882918713441647</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="189">
                   <c:v>0.885714285714285</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="190">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="191">
                   <c:v>0.942857142857142</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="192">
                   <c:v>0.948683298050513</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="193">
                   <c:v>0.954313515420527</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="194">
                   <c:v>0.985610760609162</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="195">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="196">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="197">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="198">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="199">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="200">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -19080,49 +19860,112 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2142978200"/>
-        <c:axId val="2142980472"/>
+        <c:axId val="-2124575560"/>
+        <c:axId val="2143580008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2142978200"/>
+        <c:axId val="-2124575560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Projects</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142980472"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2143580008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2142980472"/>
+        <c:axId val="2143580008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="-1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Spearman Ranking</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142978200"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2124575560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -21635,20 +22478,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -42806,7 +43649,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -42833,9 +43676,9 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
         <v>0.23996088868096299</v>
       </c>
       <c r="C2">
@@ -42853,9 +43696,9 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="9">
         <v>0.29606055003375498</v>
       </c>
       <c r="C3">
@@ -42873,9 +43716,9 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="B4" s="9">
         <v>0.30021273026678102</v>
       </c>
       <c r="C4">
@@ -42893,9 +43736,9 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="B5" s="9">
         <v>0.33819445478228899</v>
       </c>
       <c r="C5">
@@ -42913,9 +43756,9 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>40</v>
-      </c>
-      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="B6" s="9">
         <v>0.34456683848527198</v>
       </c>
       <c r="C6">
@@ -42933,9 +43776,9 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>50</v>
-      </c>
-      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="B7" s="9">
         <v>0.33492104053357402</v>
       </c>
       <c r="C7">
@@ -42953,9 +43796,9 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>60</v>
-      </c>
-      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="B8" s="9">
         <v>0.344959707325737</v>
       </c>
       <c r="C8">
@@ -42973,9 +43816,9 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="B9" s="9">
         <v>0.40740890423559001</v>
       </c>
       <c r="C9">
@@ -42993,9 +43836,9 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>80</v>
-      </c>
-      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="B10" s="9">
         <v>0.38283844869575701</v>
       </c>
       <c r="C10">
@@ -43013,9 +43856,9 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>90</v>
-      </c>
-      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="B11" s="9">
         <v>0.34662157502409702</v>
       </c>
       <c r="C11">
@@ -43033,6 +43876,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -43044,869 +43888,2489 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="11" style="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8">
+        <f>A1/203</f>
+        <v>4.9261083743842365E-3</v>
+      </c>
+      <c r="C1">
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <f t="shared" ref="B2:B65" si="0">A2/203</f>
+        <v>9.852216748768473E-3</v>
+      </c>
+      <c r="C2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4778325123152709E-2</v>
+      </c>
+      <c r="C3">
         <v>-0.94868329805051299</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9704433497536946E-2</v>
+      </c>
+      <c r="C4">
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="E4">
+        <v>0.22163039966390599</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.50569851692620205</v>
+      </c>
+      <c r="I4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4630541871921183E-2</v>
+      </c>
+      <c r="C5">
+        <v>-0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.9556650246305417E-2</v>
+      </c>
+      <c r="C6">
+        <v>-0.811679449913427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="C7">
+        <v>-0.78262379212492605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9408866995073892E-2</v>
+      </c>
+      <c r="C8">
+        <v>-0.78072005835882596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>4.4334975369458129E-2</v>
+      </c>
+      <c r="C9">
+        <v>-0.77459666924148296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>4.9261083743842367E-2</v>
+      </c>
+      <c r="C10">
+        <v>-0.77031909491656503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>5.4187192118226604E-2</v>
+      </c>
+      <c r="C11">
+        <v>-0.74870488592714501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>5.9113300492610835E-2</v>
+      </c>
+      <c r="C12">
+        <v>-0.69825325182675302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="0"/>
+        <v>6.4039408866995079E-2</v>
+      </c>
+      <c r="C13">
+        <v>-0.68627450980392102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="0"/>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="C14">
+        <v>-0.63006191916193599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="0"/>
+        <v>7.3891625615763554E-2</v>
+      </c>
+      <c r="C15">
+        <v>-0.59299945332888004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="0"/>
+        <v>7.8817733990147784E-2</v>
+      </c>
+      <c r="C16">
+        <v>-0.58946988682607604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="0"/>
+        <v>8.3743842364532015E-2</v>
+      </c>
+      <c r="C17">
+        <v>-0.56428809364683397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="0"/>
+        <v>8.8669950738916259E-2</v>
+      </c>
+      <c r="C18">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="0"/>
+        <v>9.3596059113300489E-2</v>
+      </c>
+      <c r="C19">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="0"/>
+        <v>9.8522167487684734E-2</v>
+      </c>
+      <c r="C20">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="C21">
+        <v>-0.487417436675953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10837438423645321</v>
+      </c>
+      <c r="C22">
+        <v>-0.47685255920550002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11330049261083744</v>
+      </c>
+      <c r="C23">
+        <v>-0.45046873134777898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11822660098522167</v>
+      </c>
+      <c r="C24">
+        <v>-0.44721359549995798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12315270935960591</v>
+      </c>
+      <c r="C25">
+        <v>-0.43915503282683899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12807881773399016</v>
+      </c>
+      <c r="C26">
+        <v>-0.41778637429367399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13300492610837439</v>
+      </c>
+      <c r="C27">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="C28">
+        <v>-0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C29">
+        <v>-0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14778325123152711</v>
+      </c>
+      <c r="C30">
+        <v>-0.376851173174091</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15270935960591134</v>
+      </c>
+      <c r="C31">
+        <v>-0.35634832254989901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15763546798029557</v>
+      </c>
+      <c r="C32">
+        <v>-0.35355339059327301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1625615763546798</v>
+      </c>
+      <c r="C33">
+        <v>-0.33494692265161702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16748768472906403</v>
+      </c>
+      <c r="C34">
+        <v>-0.311798927039175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="C35">
+        <v>-0.29940656547831401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17733990147783252</v>
+      </c>
+      <c r="C36">
+        <v>-0.292303328057814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18226600985221675</v>
+      </c>
+      <c r="C37">
+        <v>-0.29092868272585598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18719211822660098</v>
+      </c>
+      <c r="C38">
+        <v>-0.27386127875258298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19211822660098521</v>
+      </c>
+      <c r="C39">
+        <v>-0.265079480991533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19704433497536947</v>
+      </c>
+      <c r="C40">
+        <v>-0.25714285714285701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2019704433497537</v>
+      </c>
+      <c r="C41">
+        <v>-0.243975018237133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="C42">
+        <v>-0.229367451067991</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21182266009852216</v>
+      </c>
+      <c r="C43">
+        <v>-0.21251185925162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21674876847290642</v>
+      </c>
+      <c r="C44">
+        <v>-0.20519567041702999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22167487684729065</v>
+      </c>
+      <c r="C45">
+        <v>-0.194477793976367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22660098522167488</v>
+      </c>
+      <c r="C46">
+        <v>-0.18342821387646299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23152709359605911</v>
+      </c>
+      <c r="C47">
+        <v>-0.17165448845607201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23645320197044334</v>
+      </c>
+      <c r="C48">
+        <v>-0.16951587590520201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="C49">
+        <v>-0.164887544065348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24630541871921183</v>
+      </c>
+      <c r="C50">
+        <v>-0.15389675281277199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25123152709359609</v>
+      </c>
+      <c r="C51">
+        <v>-0.152147483430769</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25615763546798032</v>
+      </c>
+      <c r="C52">
+        <v>-0.15179418517972901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26108374384236455</v>
+      </c>
+      <c r="C53">
+        <v>-0.115300250271854</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26600985221674878</v>
+      </c>
+      <c r="C54">
+        <v>-0.101709525543121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27093596059113301</v>
+      </c>
+      <c r="C55">
+        <v>-8.5714285714286104E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="C56">
+        <v>-8.4862512869552195E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28078817733990147</v>
+      </c>
+      <c r="C57">
+        <v>-7.9027720678408603E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C58">
+        <v>-7.53144667880149E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" s="8">
+        <f t="shared" si="0"/>
+        <v>0.29064039408866993</v>
+      </c>
+      <c r="C59">
+        <v>-7.3192505471140104E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" s="8">
+        <f t="shared" si="0"/>
+        <v>0.29556650246305421</v>
+      </c>
+      <c r="C60">
+        <v>-7.2727272727272502E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30049261083743845</v>
+      </c>
+      <c r="C61">
+        <v>-7.1428571428571494E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30541871921182268</v>
+      </c>
+      <c r="C62">
+        <v>-5.9881313095663198E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="C63">
+        <v>-2.8571428571430298E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31527093596059114</v>
+      </c>
+      <c r="C64">
+        <v>-1.69515875905197E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" s="8">
+        <f t="shared" si="0"/>
+        <v>0.32019704433497537</v>
+      </c>
+      <c r="C65">
+        <v>-6.1354311913956903E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" s="8">
+        <f t="shared" ref="B66:B129" si="1">A66/203</f>
+        <v>0.3251231527093596</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" s="8">
+        <f t="shared" si="1"/>
+        <v>0.33004926108374383</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" s="8">
+        <f t="shared" si="1"/>
+        <v>0.33497536945812806</v>
+      </c>
+      <c r="C68">
+        <v>1.7921262068317099E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" s="8">
+        <f t="shared" si="1"/>
+        <v>0.33990147783251229</v>
+      </c>
+      <c r="C69">
+        <v>2.80210587335331E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" s="8">
+        <f t="shared" si="1"/>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="C70">
+        <v>4.2424242424243398E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" s="8">
+        <f t="shared" si="1"/>
+        <v>0.34975369458128081</v>
+      </c>
+      <c r="C71">
+        <v>4.9544724391339001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" s="8">
+        <f t="shared" si="1"/>
+        <v>0.35467980295566504</v>
+      </c>
+      <c r="C72">
+        <v>5.7396402139484798E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" s="8">
+        <f t="shared" si="1"/>
+        <v>0.35960591133004927</v>
+      </c>
+      <c r="C73">
+        <v>5.79771035652447E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" s="8">
+        <f t="shared" si="1"/>
+        <v>0.3645320197044335</v>
+      </c>
+      <c r="C74">
+        <v>7.1428571428571494E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" s="8">
+        <f t="shared" si="1"/>
+        <v>0.36945812807881773</v>
+      </c>
+      <c r="C75">
+        <v>8.5106776115209004E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" s="8">
+        <f t="shared" si="1"/>
+        <v>0.37438423645320196</v>
+      </c>
+      <c r="C76">
+        <v>8.6758895345672701E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" s="8">
+        <f t="shared" si="1"/>
+        <v>0.37931034482758619</v>
+      </c>
+      <c r="C77">
+        <v>8.8174089237834694E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" s="8">
+        <f t="shared" si="1"/>
+        <v>0.38423645320197042</v>
+      </c>
+      <c r="C78">
+        <v>9.1076511107837196E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" s="8">
+        <f t="shared" si="1"/>
+        <v>0.3891625615763547</v>
+      </c>
+      <c r="C79">
+        <v>9.6552550750703306E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" s="8">
+        <f t="shared" si="1"/>
+        <v>0.39408866995073893</v>
+      </c>
+      <c r="C80">
+        <v>0.115954207130489</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" s="8">
+        <f t="shared" si="1"/>
+        <v>0.39901477832512317</v>
+      </c>
+      <c r="C81">
+        <v>0.14285714285714299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" s="8">
+        <f t="shared" si="1"/>
+        <v>0.4039408866995074</v>
+      </c>
+      <c r="C82">
+        <v>0.16486855942696901</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" s="8">
+        <f t="shared" si="1"/>
+        <v>0.40886699507389163</v>
+      </c>
+      <c r="C83">
+        <v>0.164939977965676</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" s="8">
+        <f t="shared" si="1"/>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="C84">
+        <v>0.173931310695734</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" s="8">
+        <f t="shared" si="1"/>
+        <v>0.41871921182266009</v>
+      </c>
+      <c r="C85">
+        <v>0.18787878787878701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42364532019704432</v>
+      </c>
+      <c r="C86">
+        <v>0.19141925774604199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C87">
+        <v>0.197574814883725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" s="8">
+        <f t="shared" si="1"/>
+        <v>0.43349753694581283</v>
+      </c>
+      <c r="C88">
+        <v>0.19999999999999901</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" s="8">
+        <f t="shared" si="1"/>
+        <v>0.43842364532019706</v>
+      </c>
+      <c r="C89">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" s="8">
+        <f t="shared" si="1"/>
+        <v>0.44334975369458129</v>
+      </c>
+      <c r="C90">
+        <v>0.20359646452525401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" s="8">
+        <f t="shared" si="1"/>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="C91">
+        <v>0.21081851067789201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" s="8">
+        <f t="shared" si="1"/>
+        <v>0.45320197044334976</v>
+      </c>
+      <c r="C92">
+        <v>0.21127284456119899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" s="8">
+        <f t="shared" si="1"/>
+        <v>0.45812807881773399</v>
+      </c>
+      <c r="C93">
+        <v>0.21957751641341999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" s="8">
+        <f t="shared" si="1"/>
+        <v>0.46305418719211822</v>
+      </c>
+      <c r="C94">
+        <v>0.22360679774997899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" s="8">
+        <f t="shared" si="1"/>
+        <v>0.46798029556650245</v>
+      </c>
+      <c r="C95">
+        <v>0.22360679774997899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" s="8">
+        <f t="shared" si="1"/>
+        <v>0.47290640394088668</v>
+      </c>
+      <c r="C96">
+        <v>0.235004835540192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" s="8">
+        <f t="shared" si="1"/>
+        <v>0.47783251231527096</v>
+      </c>
+      <c r="C97">
+        <v>0.25213819169574198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" s="8">
+        <f t="shared" si="1"/>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="C98">
+        <v>0.25943726083138502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" s="8">
+        <f t="shared" si="1"/>
+        <v>0.48768472906403942</v>
+      </c>
+      <c r="C99">
+        <v>0.27712854830933098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" s="8">
+        <f t="shared" si="1"/>
+        <v>0.49261083743842365</v>
+      </c>
+      <c r="C100">
+        <v>0.27804601591240102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" s="8">
+        <f t="shared" si="1"/>
+        <v>0.49753694581280788</v>
+      </c>
+      <c r="C101">
+        <v>0.28836526599572798</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" s="8">
+        <f t="shared" si="1"/>
+        <v>0.50246305418719217</v>
+      </c>
+      <c r="C102">
+        <v>0.29112179836791502</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" s="8">
+        <f t="shared" si="1"/>
+        <v>0.5073891625615764</v>
+      </c>
+      <c r="C103">
+        <v>0.29940656547831401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" s="8">
+        <f t="shared" si="1"/>
+        <v>0.51231527093596063</v>
+      </c>
+      <c r="C104">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" s="8">
+        <f t="shared" si="1"/>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="C105">
+        <v>0.30274958939614799</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" s="8">
+        <f t="shared" si="1"/>
+        <v>0.52216748768472909</v>
+      </c>
+      <c r="C106">
+        <v>0.30425553170226499</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107" s="8">
+        <f t="shared" si="1"/>
+        <v>0.52709359605911332</v>
+      </c>
+      <c r="C107">
+        <v>0.30779350562554603</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108" s="8">
+        <f t="shared" si="1"/>
+        <v>0.53201970443349755</v>
+      </c>
+      <c r="C108">
+        <v>0.31611088271363302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" s="8">
+        <f t="shared" si="1"/>
+        <v>0.53694581280788178</v>
+      </c>
+      <c r="C109">
+        <v>0.316227766016838</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" s="8">
+        <f t="shared" si="1"/>
+        <v>0.54187192118226601</v>
+      </c>
+      <c r="C110">
+        <v>0.32517785314411901</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111" s="8">
+        <f t="shared" si="1"/>
+        <v>0.54679802955665024</v>
+      </c>
+      <c r="C111">
+        <v>0.35146751167740298</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112" s="8">
+        <f t="shared" si="1"/>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="C112">
+        <v>0.35355339059327301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113" s="8">
+        <f t="shared" si="1"/>
+        <v>0.55665024630541871</v>
+      </c>
+      <c r="C113">
+        <v>0.35642407770401102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114" s="8">
+        <f t="shared" si="1"/>
+        <v>0.56157635467980294</v>
+      </c>
+      <c r="C114">
+        <v>0.35757575757575699</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115" s="8">
+        <f t="shared" si="1"/>
+        <v>0.56650246305418717</v>
+      </c>
+      <c r="C115">
+        <v>0.35928787857397698</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116" s="8">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C116">
+        <v>0.35928787857397698</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117" s="8">
+        <f t="shared" si="1"/>
+        <v>0.57635467980295563</v>
+      </c>
+      <c r="C117">
+        <v>0.36644601532152399</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118" s="8">
+        <f t="shared" si="1"/>
+        <v>0.58128078817733986</v>
+      </c>
+      <c r="C118">
+        <v>0.38415348299103502</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119" s="8">
+        <f t="shared" si="1"/>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="C119">
+        <v>0.39520337841945402</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120" s="8">
+        <f t="shared" si="1"/>
+        <v>0.59113300492610843</v>
+      </c>
+      <c r="C120">
+        <v>0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121" s="8">
+        <f t="shared" si="1"/>
+        <v>0.59605911330049266</v>
+      </c>
+      <c r="C121">
+        <v>0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122" s="8">
+        <f t="shared" si="1"/>
+        <v>0.60098522167487689</v>
+      </c>
+      <c r="C122">
+        <v>0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123" s="8">
+        <f t="shared" si="1"/>
+        <v>0.60591133004926112</v>
+      </c>
+      <c r="C123">
+        <v>0.40196870821962799</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124" s="8">
+        <f t="shared" si="1"/>
+        <v>0.61083743842364535</v>
+      </c>
+      <c r="C124">
+        <v>0.40768712416360497</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125" s="8">
+        <f t="shared" si="1"/>
+        <v>0.61576354679802958</v>
+      </c>
+      <c r="C125">
+        <v>0.41039134083406098</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>-0.89442719099991597</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>-0.86602540378443804</v>
-      </c>
-      <c r="C5">
-        <v>0.23274904440654701</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5">
+      <c r="B126" s="8">
+        <f t="shared" si="1"/>
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="C126">
+        <v>0.41039134083406098</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127" s="8">
+        <f t="shared" si="1"/>
+        <v>0.62561576354679804</v>
+      </c>
+      <c r="C127">
+        <v>0.411055997361713</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128" s="8">
+        <f t="shared" si="1"/>
+        <v>0.63054187192118227</v>
+      </c>
+      <c r="C128">
+        <v>0.416443419194297</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129" s="8">
+        <f t="shared" si="1"/>
+        <v>0.6354679802955665</v>
+      </c>
+      <c r="C129">
+        <v>0.42669300655412901</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130" s="8">
+        <f t="shared" ref="B130:B193" si="2">A130/203</f>
+        <v>0.64039408866995073</v>
+      </c>
+      <c r="C130">
+        <v>0.43333333333333302</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131" s="8">
+        <f t="shared" si="2"/>
+        <v>0.64532019704433496</v>
+      </c>
+      <c r="C131">
+        <v>0.43915503282683999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132" s="8">
+        <f t="shared" si="2"/>
+        <v>0.65024630541871919</v>
+      </c>
+      <c r="C132">
+        <v>0.45046873134777898</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133" s="8">
+        <f t="shared" si="2"/>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="C133">
+        <v>0.46025507481564698</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134" s="8">
+        <f t="shared" si="2"/>
+        <v>0.66009852216748766</v>
+      </c>
+      <c r="C134">
+        <v>0.46381682852195799</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135" s="8">
+        <f t="shared" si="2"/>
+        <v>0.66502463054187189</v>
+      </c>
+      <c r="C135">
+        <v>0.484881137876426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136" s="8">
+        <f t="shared" si="2"/>
+        <v>0.66995073891625612</v>
+      </c>
+      <c r="C136">
+        <v>0.48795003647426599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137" s="8">
+        <f t="shared" si="2"/>
+        <v>0.67487684729064035</v>
+      </c>
+      <c r="C137">
+        <v>0.49090909090909002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138" s="8">
+        <f t="shared" si="2"/>
+        <v>0.67980295566502458</v>
+      </c>
+      <c r="C138">
+        <v>0.491689171894441</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139" s="8">
+        <f t="shared" si="2"/>
+        <v>0.68472906403940892</v>
+      </c>
+      <c r="C139">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140" s="8">
+        <f t="shared" si="2"/>
+        <v>0.68965517241379315</v>
+      </c>
+      <c r="C140">
+        <v>0.50452497910951299</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141" s="8">
+        <f t="shared" si="2"/>
+        <v>0.69458128078817738</v>
+      </c>
+      <c r="C141">
+        <v>0.51486979819261902</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142" s="8">
+        <f t="shared" si="2"/>
+        <v>0.69950738916256161</v>
+      </c>
+      <c r="C142">
+        <v>0.51610022961107804</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143" s="8">
+        <f t="shared" si="2"/>
+        <v>0.70443349753694584</v>
+      </c>
+      <c r="C143">
+        <v>0.54285714285714204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144" s="8">
+        <f t="shared" si="2"/>
+        <v>0.70935960591133007</v>
+      </c>
+      <c r="C144">
+        <v>0.56428809364683397</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145" s="8">
+        <f t="shared" si="2"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C145">
+        <v>0.57138004452334701</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146" s="8">
+        <f t="shared" si="2"/>
+        <v>0.71921182266009853</v>
+      </c>
+      <c r="C146">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147" s="8">
+        <f t="shared" si="2"/>
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="C147">
+        <v>0.57145550464431105</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148" s="8">
+        <f t="shared" si="2"/>
+        <v>0.72906403940886699</v>
+      </c>
+      <c r="C148">
+        <v>0.57575757575757502</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149" s="8">
+        <f t="shared" si="2"/>
+        <v>0.73399014778325122</v>
+      </c>
+      <c r="C149">
+        <v>0.57635397807768796</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150" s="8">
+        <f t="shared" si="2"/>
+        <v>0.73891625615763545</v>
+      </c>
+      <c r="C150">
+        <v>0.61558701125109205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151" s="8">
+        <f t="shared" si="2"/>
+        <v>0.74384236453201968</v>
+      </c>
+      <c r="C151">
+        <v>0.61904761904761896</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152" s="8">
+        <f t="shared" si="2"/>
+        <v>0.74876847290640391</v>
+      </c>
+      <c r="C152">
+        <v>0.63333333333333297</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153" s="8">
+        <f t="shared" si="2"/>
+        <v>0.75369458128078815</v>
+      </c>
+      <c r="C153">
+        <v>0.66688592885535003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154" s="8">
+        <f t="shared" si="2"/>
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="C154">
+        <v>0.66688592885535003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155" s="8">
+        <f t="shared" si="2"/>
+        <v>0.76354679802955661</v>
+      </c>
+      <c r="C155">
+        <v>0.66688592885535003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156" s="8">
+        <f t="shared" si="2"/>
+        <v>0.76847290640394084</v>
+      </c>
+      <c r="C156">
+        <v>0.67229264545281398</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157" s="8">
+        <f t="shared" si="2"/>
+        <v>0.77339901477832518</v>
+      </c>
+      <c r="C157">
+        <v>0.679510674288195</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158" s="8">
+        <f t="shared" si="2"/>
+        <v>0.77832512315270941</v>
+      </c>
+      <c r="C158">
+        <v>0.69825325182675302</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159" s="8">
+        <f t="shared" si="2"/>
+        <v>0.78325123152709364</v>
+      </c>
+      <c r="C159">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160" s="8">
+        <f t="shared" si="2"/>
+        <v>0.78817733990147787</v>
+      </c>
+      <c r="C160">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161" s="8">
+        <f t="shared" si="2"/>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="C161">
+        <v>0.70659949452882198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162" s="8">
+        <f t="shared" si="2"/>
+        <v>0.79802955665024633</v>
+      </c>
+      <c r="C162">
+        <v>0.73786478737262096</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163" s="8">
+        <f t="shared" si="2"/>
+        <v>0.80295566502463056</v>
+      </c>
+      <c r="C163">
+        <v>0.73786478737262096</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164" s="8">
+        <f t="shared" si="2"/>
+        <v>0.80788177339901479</v>
+      </c>
+      <c r="C164">
+        <v>0.73786478737262096</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165" s="8">
+        <f t="shared" si="2"/>
+        <v>0.81280788177339902</v>
+      </c>
+      <c r="C165">
+        <v>0.74545454545454504</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166" s="8">
+        <f t="shared" si="2"/>
+        <v>0.81773399014778325</v>
+      </c>
+      <c r="C166">
+        <v>0.74586985398289096</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167" s="8">
+        <f t="shared" si="2"/>
+        <v>0.82266009852216748</v>
+      </c>
+      <c r="C167">
+        <v>0.75897092589864501</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168" s="8">
+        <f t="shared" si="2"/>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="C168">
+        <v>0.77459666924148296</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169" s="8">
+        <f t="shared" si="2"/>
+        <v>0.83251231527093594</v>
+      </c>
+      <c r="C169">
+        <v>0.78334945180063997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170" s="8">
+        <f t="shared" si="2"/>
+        <v>0.83743842364532017</v>
+      </c>
+      <c r="C170">
+        <v>0.78441558441558401</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171" s="8">
+        <f t="shared" si="2"/>
+        <v>0.8423645320197044</v>
+      </c>
+      <c r="C171">
+        <v>0.79056941504209399</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172" s="8">
+        <f t="shared" si="2"/>
+        <v>0.84729064039408863</v>
+      </c>
+      <c r="C172">
+        <v>0.79056941504209399</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173" s="8">
+        <f t="shared" si="2"/>
+        <v>0.85221674876847286</v>
+      </c>
+      <c r="C173">
+        <v>0.79056941504209399</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174" s="8">
+        <f t="shared" si="2"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C174">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175" s="8">
+        <f t="shared" si="2"/>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="C175">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176" s="8">
+        <f t="shared" si="2"/>
+        <v>0.86699507389162567</v>
+      </c>
+      <c r="C176">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177" s="8">
+        <f t="shared" si="2"/>
+        <v>0.8719211822660099</v>
+      </c>
+      <c r="C177">
+        <v>0.80511756018253899</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178" s="8">
+        <f t="shared" si="2"/>
+        <v>0.87684729064039413</v>
+      </c>
+      <c r="C178">
+        <v>0.80952380952380898</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179" s="8">
+        <f t="shared" si="2"/>
+        <v>0.88177339901477836</v>
+      </c>
+      <c r="C179">
+        <v>0.811679449913427</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180" s="8">
+        <f t="shared" si="2"/>
+        <v>0.88669950738916259</v>
+      </c>
+      <c r="C180">
+        <v>0.84515425472851602</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181" s="8">
+        <f t="shared" si="2"/>
+        <v>0.89162561576354682</v>
+      </c>
+      <c r="C181">
+        <v>0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182" s="8">
+        <f t="shared" si="2"/>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="C182">
+        <v>0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183" s="8">
+        <f t="shared" si="2"/>
+        <v>0.90147783251231528</v>
+      </c>
+      <c r="C183">
+        <v>0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184" s="8">
+        <f t="shared" si="2"/>
+        <v>0.90640394088669951</v>
+      </c>
+      <c r="C184">
+        <v>0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185" s="8">
+        <f t="shared" si="2"/>
+        <v>0.91133004926108374</v>
+      </c>
+      <c r="C185">
+        <v>0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186" s="8">
+        <f t="shared" si="2"/>
+        <v>0.91625615763546797</v>
+      </c>
+      <c r="C186">
+        <v>0.87208159927238005</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187" s="8">
+        <f t="shared" si="2"/>
+        <v>0.9211822660098522</v>
+      </c>
+      <c r="C187">
+        <v>0.87958191419917997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188" s="8">
+        <f t="shared" si="2"/>
+        <v>0.92610837438423643</v>
+      </c>
+      <c r="C188">
+        <v>0.88040627404242799</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189" s="8">
+        <f t="shared" si="2"/>
+        <v>0.93103448275862066</v>
+      </c>
+      <c r="C189">
+        <v>0.88291871344164696</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190" s="8">
+        <f t="shared" si="2"/>
+        <v>0.93596059113300489</v>
+      </c>
+      <c r="C190">
+        <v>0.88571428571428501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191" s="8">
+        <f t="shared" si="2"/>
+        <v>0.94088669950738912</v>
+      </c>
+      <c r="C191">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192" s="8">
+        <f t="shared" si="2"/>
+        <v>0.94581280788177335</v>
+      </c>
+      <c r="C192">
+        <v>0.94285714285714195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193" s="8">
+        <f t="shared" si="2"/>
+        <v>0.95073891625615758</v>
+      </c>
+      <c r="C193">
+        <v>0.94868329805051299</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>194</v>
+      </c>
+      <c r="B194" s="8">
+        <f t="shared" ref="B194:B203" si="3">A194/203</f>
+        <v>0.95566502463054193</v>
+      </c>
+      <c r="C194">
+        <v>0.954313515420527</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>195</v>
+      </c>
+      <c r="B195" s="8">
+        <f t="shared" si="3"/>
+        <v>0.96059113300492616</v>
+      </c>
+      <c r="C195">
+        <v>0.98561076060916197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>196</v>
+      </c>
+      <c r="B196" s="8">
+        <f t="shared" si="3"/>
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="C196">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.51420065757618805</v>
-      </c>
-      <c r="G5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>-0.811679449913427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>-0.78262379212492605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>-0.78072005835882596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>-0.77459666924148296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>-0.74870488592714501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>-0.63006191916193599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>-0.59299945332888004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>-0.58946988682607604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>-0.487417436675953</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>-0.45046873134777898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>-0.44721359549995798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>-0.41778637429367399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>-0.39999999999999902</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>-0.35634832254989901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>-0.33494692265161702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>-0.311798927039175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>-0.29940656547831401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>-0.29092868272585598</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>-0.27386127875258298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>-0.265079480991533</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>-0.25714285714285701</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>-0.21251185925162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>-0.20519567041702999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>-0.194477793976367</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>-0.18342821387646299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>-0.17165448845607201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>-0.16951587590520201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>-0.164887544065348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>-0.15389675281277199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>-0.152147483430769</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>-0.15179418517972901</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <v>-0.101709525543121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <v>-8.5714285714286104E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <v>-8.4862512869552195E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
-        <v>-7.9027720678408603E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
-        <v>-7.53144667880149E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
-        <v>-7.2727272727272502E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
-        <v>-7.1428571428571494E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
-        <v>-5.9881313095663198E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
-        <v>-2.8571428571430298E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
-        <v>-6.1354311913956903E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
-        <v>1.7921262068317099E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
-        <v>2.80210587335331E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
-        <v>4.2424242424243398E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
-        <v>4.9544724391339001E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
-        <v>5.7396402139484798E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
-        <v>5.79771035652447E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
-        <v>7.1428571428571494E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
-        <v>8.5106776115209004E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
-        <v>8.6758895345672701E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
-        <v>9.1076511107837196E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
-        <v>9.6552550750703306E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
-        <v>0.115954207130489</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
-        <v>0.16486855942696901</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
-        <v>0.164939977965676</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
-        <v>0.173931310695734</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
-        <v>0.18787878787878701</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
-        <v>0.19141925774604199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
-        <v>0.19999999999999901</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
-        <v>0.20359646452525401</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
-        <v>0.21127284456119899</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72">
-        <v>0.22360679774997899</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
-        <v>0.235004835540192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
-        <v>0.25213819169574198</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
-        <v>0.25943726083138502</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
-        <v>0.27804601591240102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
-        <v>0.29112179836791502</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
-        <v>0.29940656547831401</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80">
-        <v>0.30274958939614799</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
-        <v>0.30425553170226499</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82">
-        <v>0.30779350562554603</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83">
-        <v>0.31611088271363302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84">
-        <v>0.32517785314411901</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85">
-        <v>0.35146751167740298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86">
-        <v>0.35355339059327301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87">
-        <v>0.35642407770401102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88">
-        <v>0.35757575757575699</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89">
-        <v>0.35928787857397698</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90">
-        <v>0.35928787857397698</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91">
-        <v>0.38415348299103502</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92">
-        <v>0.39520337841945402</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93">
-        <v>0.39999999999999902</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94">
-        <v>0.39999999999999902</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95">
-        <v>0.40196870821962799</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96">
-        <v>0.40768712416360497</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97">
-        <v>0.41039134083406098</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98">
-        <v>0.41039134083406098</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99">
-        <v>0.411055997361713</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100">
-        <v>0.416443419194297</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101">
-        <v>0.42669300655412901</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102">
-        <v>0.43333333333333302</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103">
-        <v>0.45046873134777898</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104">
-        <v>0.46025507481564698</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105">
-        <v>0.484881137876426</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106">
-        <v>0.48795003647426599</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107">
-        <v>0.491689171894441</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109">
-        <v>0.50452497910951299</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110">
-        <v>0.51486979819261902</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111">
-        <v>0.51610022961107804</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112">
-        <v>0.54285714285714204</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113">
-        <v>0.56428809364683397</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114">
-        <v>0.57142857142857095</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115">
-        <v>0.57145550464431105</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116">
-        <v>0.57575757575757502</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117">
-        <v>0.57635397807768796</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118">
-        <v>0.61558701125109205</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119">
-        <v>0.61904761904761896</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120">
-        <v>0.63333333333333297</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121">
-        <v>0.66688592885535003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122">
-        <v>0.66688592885535003</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123">
-        <v>0.67229264545281398</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124">
-        <v>0.679510674288195</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125">
-        <v>0.69825325182675302</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128">
-        <v>0.70659949452882198</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129">
-        <v>0.73786478737262096</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130">
-        <v>0.73786478737262096</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131">
-        <v>0.74545454545454504</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132">
-        <v>0.74586985398289096</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133">
-        <v>0.75897092589864501</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134">
-        <v>0.77459666924148296</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135">
-        <v>0.78441558441558401</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136">
-        <v>0.79056941504209399</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137">
-        <v>0.79056941504209399</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138">
-        <v>0.79056941504209399</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141">
-        <v>0.80511756018253899</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142">
-        <v>0.80952380952380898</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143">
-        <v>0.811679449913427</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144">
-        <v>0.85714285714285698</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145">
-        <v>0.86602540378443804</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146">
-        <v>0.86602540378443804</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147">
-        <v>0.86602540378443804</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148">
-        <v>0.86602540378443804</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149">
-        <v>0.87208159927238005</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150">
-        <v>0.87958191419917997</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151">
-        <v>0.88040627404242799</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152">
-        <v>0.88291871344164696</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153">
-        <v>0.88571428571428501</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155">
-        <v>0.94285714285714195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156">
-        <v>0.94868329805051299</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157">
-        <v>0.954313515420527</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158">
-        <v>0.98561076060916197</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159">
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>197</v>
+      </c>
+      <c r="B197" s="8">
+        <f t="shared" si="3"/>
+        <v>0.97044334975369462</v>
+      </c>
+      <c r="C197">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160">
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>198</v>
+      </c>
+      <c r="B198" s="8">
+        <f t="shared" si="3"/>
+        <v>0.97536945812807885</v>
+      </c>
+      <c r="C198">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161">
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>199</v>
+      </c>
+      <c r="B199" s="8">
+        <f t="shared" si="3"/>
+        <v>0.98029556650246308</v>
+      </c>
+      <c r="C199">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162">
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>200</v>
+      </c>
+      <c r="B200" s="8">
+        <f t="shared" si="3"/>
+        <v>0.98522167487684731</v>
+      </c>
+      <c r="C200">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163">
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>201</v>
+      </c>
+      <c r="B201" s="8">
+        <f t="shared" si="3"/>
+        <v>0.99014778325123154</v>
+      </c>
+      <c r="C201">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164">
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>202</v>
+      </c>
+      <c r="B202" s="8">
+        <f t="shared" si="3"/>
+        <v>0.99507389162561577</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>203</v>
+      </c>
+      <c r="B203" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C203">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -45474,7 +47938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/articles/aosd_2014/graphs.xlsx
+++ b/articles/aosd_2014/graphs.xlsx
@@ -18616,618 +18616,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'commits+d spearman'!$B$1:$B$203</c:f>
+              <c:f>'commits+d spearman'!$A$1:$A$203</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="203"/>
                 <c:pt idx="0">
-                  <c:v>0.00492610837438424</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00985221674876847</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0147783251231527</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0197044334975369</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0246305418719212</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0295566502463054</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0344827586206896</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0394088669950739</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0443349753694581</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0492610837438424</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0541871921182266</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0591133004926108</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0640394088669951</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0689655172413793</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0738916256157635</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0788177339901478</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.083743842364532</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0886699507389162</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0935960591133005</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0985221674876847</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.103448275862069</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.108374384236453</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.113300492610837</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.118226600985222</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.123152709359606</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.12807881773399</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.133004926108374</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.137931034482759</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.142857142857143</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.147783251231527</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.152709359605911</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.157635467980296</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.16256157635468</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.167487684729064</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.172413793103448</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.177339901477833</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.182266009852217</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.187192118226601</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.192118226600985</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.197044334975369</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.201970443349754</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.206896551724138</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.211822660098522</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.216748768472906</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.221674876847291</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.226600985221675</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.231527093596059</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.236453201970443</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.241379310344828</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.246305418719212</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.251231527093596</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.25615763546798</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.261083743842365</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.266009852216749</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.270935960591133</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.275862068965517</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.280788177339901</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.285714285714286</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.29064039408867</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.295566502463054</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.300492610837438</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.305418719211823</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.310344827586207</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.315270935960591</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.320197044334975</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.32512315270936</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.330049261083744</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.334975369458128</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.339901477832512</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.344827586206897</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.349753694581281</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.354679802955665</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.359605911330049</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.364532019704433</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.369458128078818</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.374384236453202</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.379310344827586</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.38423645320197</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.389162561576355</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.394088669950739</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.399014778325123</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.403940886699507</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.408866995073892</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.413793103448276</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.41871921182266</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.423645320197044</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.428571428571429</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.433497536945813</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.438423645320197</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.443349753694581</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.448275862068965</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.45320197044335</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.458128078817734</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.463054187192118</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.467980295566502</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.472906403940887</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.477832512315271</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.482758620689655</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.487684729064039</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.492610837438424</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.497536945812808</c:v>
+                  <c:v>101.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.502463054187192</c:v>
+                  <c:v>102.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.507389162561576</c:v>
+                  <c:v>103.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.512315270935961</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.517241379310345</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.522167487684729</c:v>
+                  <c:v>106.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.527093596059113</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.532019704433498</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.536945812807882</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.541871921182266</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.54679802955665</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.551724137931034</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.556650246305419</c:v>
+                  <c:v>113.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.561576354679803</c:v>
+                  <c:v>114.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.566502463054187</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.571428571428571</c:v>
+                  <c:v>116.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.576354679802956</c:v>
+                  <c:v>117.0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.58128078817734</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.586206896551724</c:v>
+                  <c:v>119.0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.591133004926108</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.596059113300493</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.600985221674877</c:v>
+                  <c:v>122.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.605911330049261</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.610837438423645</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.615763546798029</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.620689655172414</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.625615763546798</c:v>
+                  <c:v>127.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.630541871921182</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.635467980295566</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.640394088669951</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.645320197044335</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.650246305418719</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.655172413793103</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.660098522167488</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.665024630541872</c:v>
+                  <c:v>135.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.669950738916256</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.67487684729064</c:v>
+                  <c:v>137.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.679802955665024</c:v>
+                  <c:v>138.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.684729064039409</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.689655172413793</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.694581280788177</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.699507389162561</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.704433497536946</c:v>
+                  <c:v>143.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.70935960591133</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.714285714285714</c:v>
+                  <c:v>145.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.719211822660098</c:v>
+                  <c:v>146.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.724137931034483</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.729064039408867</c:v>
+                  <c:v>148.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.733990147783251</c:v>
+                  <c:v>149.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.738916256157635</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.74384236453202</c:v>
+                  <c:v>151.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.748768472906404</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.753694581280788</c:v>
+                  <c:v>153.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.758620689655172</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.763546798029557</c:v>
+                  <c:v>155.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.768472906403941</c:v>
+                  <c:v>156.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.773399014778325</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.778325123152709</c:v>
+                  <c:v>158.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.783251231527094</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.788177339901478</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.793103448275862</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.798029556650246</c:v>
+                  <c:v>162.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.802955665024631</c:v>
+                  <c:v>163.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.807881773399015</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.812807881773399</c:v>
+                  <c:v>165.0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.817733990147783</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.822660098522167</c:v>
+                  <c:v>167.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.827586206896552</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.832512315270936</c:v>
+                  <c:v>169.0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.83743842364532</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.842364532019704</c:v>
+                  <c:v>171.0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.847290640394089</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.852216748768473</c:v>
+                  <c:v>173.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.857142857142857</c:v>
+                  <c:v>174.0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.862068965517241</c:v>
+                  <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.866995073891626</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.87192118226601</c:v>
+                  <c:v>177.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.876847290640394</c:v>
+                  <c:v>178.0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.881773399014778</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.886699507389163</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.891625615763547</c:v>
+                  <c:v>181.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.896551724137931</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.901477832512315</c:v>
+                  <c:v>183.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.906403940886699</c:v>
+                  <c:v>184.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.911330049261084</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.916256157635468</c:v>
+                  <c:v>186.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.921182266009852</c:v>
+                  <c:v>187.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.926108374384236</c:v>
+                  <c:v>188.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.931034482758621</c:v>
+                  <c:v>189.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.935960591133005</c:v>
+                  <c:v>190.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.940886699507389</c:v>
+                  <c:v>191.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.945812807881773</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.950738916256158</c:v>
+                  <c:v>193.0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.955665024630542</c:v>
+                  <c:v>194.0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.960591133004926</c:v>
+                  <c:v>195.0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.96551724137931</c:v>
+                  <c:v>196.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.970443349753695</c:v>
+                  <c:v>197.0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.975369458128079</c:v>
+                  <c:v>198.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.980295566502463</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.985221674876847</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.990147783251231</c:v>
+                  <c:v>201.0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.995073891625616</c:v>
+                  <c:v>202.0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1.0</c:v>
+                  <c:v>203.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19867,7 +19867,8 @@
         <c:axId val="-2124575560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="210.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -19890,10 +19891,10 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -43891,7 +43892,7 @@
   <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
